--- a/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>SCND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,244 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F8" s="3">
         <v>2000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2100</v>
       </c>
       <c r="K8" s="3">
         <v>3200</v>
       </c>
       <c r="L8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1300</v>
       </c>
       <c r="K9" s="3">
         <v>2000</v>
       </c>
       <c r="L9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N9" s="3">
         <v>800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>800</v>
       </c>
       <c r="K10" s="3">
         <v>1200</v>
       </c>
       <c r="L10" s="3">
+        <v>800</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,19 +920,21 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>300</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
@@ -916,19 +943,19 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,13 +1022,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -1009,35 +1048,41 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
-        <v>300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
+        <v>300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,13 +1277,15 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1259,22 +1326,28 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E21" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H21" s="3">
         <v>300</v>
@@ -1283,31 +1356,37 @@
         <v>500</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="L21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1350,22 +1429,28 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>200</v>
       </c>
       <c r="G23" s="3">
         <v>300</v>
@@ -1374,81 +1459,93 @@
         <v>200</v>
       </c>
       <c r="I23" s="3">
+        <v>300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>200</v>
+      </c>
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,20 +1591,26 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
         <v>300</v>
       </c>
@@ -1515,46 +1618,52 @@
         <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
         <v>300</v>
       </c>
@@ -1562,34 +1671,40 @@
         <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,13 +1909,19 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1823,20 +1962,26 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
         <v>300</v>
       </c>
@@ -1844,34 +1989,40 @@
         <v>100</v>
       </c>
       <c r="I33" s="3">
+        <v>300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,20 +2068,26 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
         <v>300</v>
       </c>
@@ -1938,86 +2095,98 @@
         <v>100</v>
       </c>
       <c r="I35" s="3">
+        <v>300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,102 +2327,120 @@
       <c r="Q42" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>300</v>
+      </c>
+      <c r="S42" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="E44" s="3">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="F44" s="3">
         <v>2700</v>
       </c>
       <c r="G44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H44" s="3">
         <v>2700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J44" s="3">
         <v>2300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>2300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2263,119 +2460,131 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
+        <v>300</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E46" s="3">
         <v>6300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G46" s="3">
         <v>6600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>6800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>6000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4500</v>
-      </c>
-      <c r="N46" s="3">
-        <v>5300</v>
-      </c>
-      <c r="O46" s="3">
-        <v>5200</v>
       </c>
       <c r="P46" s="3">
         <v>5300</v>
       </c>
       <c r="Q46" s="3">
+        <v>5200</v>
+      </c>
+      <c r="R46" s="3">
+        <v>5300</v>
+      </c>
+      <c r="S46" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="3">
+        <v>500</v>
+      </c>
+      <c r="L47" s="3">
+        <v>200</v>
+      </c>
+      <c r="M47" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M47" s="3">
-        <v>200</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>10</v>
+      <c r="O47" s="3">
+        <v>200</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>10</v>
@@ -2383,8 +2592,14 @@
       <c r="Q47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2392,16 +2607,16 @@
         <v>1200</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="F48" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -2428,18 +2643,24 @@
         <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
+        <v>200</v>
+      </c>
+      <c r="S48" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F49" s="3">
         <v>900</v>
@@ -2448,37 +2669,43 @@
         <v>900</v>
       </c>
       <c r="H49" s="3">
+        <v>900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>900</v>
+      </c>
+      <c r="J49" s="3">
         <v>1000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,13 +2804,19 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
         <v>500</v>
@@ -2586,31 +2825,31 @@
         <v>500</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>600</v>
       </c>
       <c r="M52" s="3">
+        <v>500</v>
+      </c>
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
-        <v>300</v>
-      </c>
       <c r="O52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>300</v>
+      </c>
+      <c r="S52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2674,46 +2925,52 @@
         <v>8900</v>
       </c>
       <c r="E54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G54" s="3">
         <v>8300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2759,7 +3020,7 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
@@ -2768,10 +3029,10 @@
         <v>600</v>
       </c>
       <c r="H57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I57" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
@@ -2783,13 +3044,13 @@
         <v>400</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -2797,8 +3058,14 @@
       <c r="Q57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2806,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2836,110 +3103,128 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E59" s="3">
         <v>900</v>
       </c>
       <c r="F59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="3">
+        <v>900</v>
+      </c>
+      <c r="H59" s="3">
         <v>1300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>800</v>
       </c>
       <c r="I59" s="3">
         <v>800</v>
       </c>
       <c r="J59" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K59" s="3">
         <v>800</v>
       </c>
       <c r="L59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M59" s="3">
+        <v>800</v>
+      </c>
+      <c r="N59" s="3">
         <v>600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>700</v>
       </c>
       <c r="O59" s="3">
         <v>700</v>
       </c>
       <c r="P59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>700</v>
+      </c>
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1400</v>
       </c>
       <c r="Q60" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S60" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,37 +3270,43 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
-        <v>300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>400</v>
-      </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
       </c>
       <c r="K62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M62" s="3">
         <v>200</v>
@@ -3024,16 +3315,22 @@
         <v>200</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q62" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,46 +3768,52 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="E72" s="3">
         <v>3700</v>
       </c>
       <c r="F72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H72" s="3">
         <v>3400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>3300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>3200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>3100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>3000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>3100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3300</v>
-      </c>
-      <c r="N72" s="3">
-        <v>3400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>3400</v>
       </c>
       <c r="P72" s="3">
         <v>3400</v>
@@ -3474,8 +3821,14 @@
       <c r="Q72" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S72" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="E76" s="3">
         <v>6300</v>
       </c>
       <c r="F76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H76" s="3">
         <v>6000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>5800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>5700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>5900</v>
-      </c>
-      <c r="P76" s="3">
-        <v>5900</v>
       </c>
       <c r="Q76" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>5900</v>
+      </c>
+      <c r="S76" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,72 +4086,84 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
         <v>300</v>
       </c>
@@ -3782,34 +4171,40 @@
         <v>100</v>
       </c>
       <c r="I81" s="3">
+        <v>300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3839,29 +4236,29 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
-        <v>100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
-      </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
-        <v>100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>100</v>
-      </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4118,46 +4551,52 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>400</v>
-      </c>
       <c r="H89" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
         <v>400</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K89" s="3">
+        <v>400</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4184,17 +4625,17 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -4202,14 +4643,14 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -4220,10 +4661,16 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4325,17 +4784,17 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4343,14 +4802,14 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4361,10 +4820,16 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4397,14 +4864,14 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-100</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4579,46 +5070,52 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4673,42 +5176,48 @@
         <v>-300</v>
       </c>
       <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>300</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>300</v>
+      </c>
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>300</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>SCND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,191 +665,211 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2100</v>
       </c>
       <c r="M8" s="3">
         <v>3200</v>
       </c>
       <c r="N8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P8" s="3">
         <v>1300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="E9" s="3">
         <v>1200</v>
       </c>
       <c r="F9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1300</v>
       </c>
       <c r="M9" s="3">
         <v>2000</v>
       </c>
       <c r="N9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P9" s="3">
         <v>800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,52 +877,58 @@
         <v>1100</v>
       </c>
       <c r="E10" s="3">
+        <v>700</v>
+      </c>
+      <c r="F10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>800</v>
       </c>
       <c r="M10" s="3">
         <v>1200</v>
       </c>
       <c r="N10" s="3">
+        <v>800</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,25 +948,27 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>300</v>
       </c>
       <c r="F12" s="3">
+        <v>300</v>
+      </c>
+      <c r="G12" s="3">
+        <v>300</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
@@ -949,20 +977,20 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
-        <v>100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>100</v>
-      </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,19 +1062,25 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1054,35 +1094,41 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1204,69 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1274,58 @@
         <v>-300</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,20 +1345,22 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1400,14 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,19 +1415,19 @@
         <v>-300</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>500</v>
       </c>
       <c r="J21" s="3">
         <v>300</v>
@@ -1362,36 +1436,42 @@
         <v>500</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="N21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1435,28 +1515,34 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>200</v>
       </c>
       <c r="I23" s="3">
         <v>300</v>
@@ -1465,34 +1551,40 @@
         <v>200</v>
       </c>
       <c r="K23" s="3">
+        <v>300</v>
+      </c>
+      <c r="L23" s="3">
+        <v>200</v>
+      </c>
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1500,52 +1592,58 @@
         <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1695,14 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,16 +1710,16 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>100</v>
       </c>
       <c r="I26" s="3">
         <v>300</v>
@@ -1624,34 +1728,40 @@
         <v>100</v>
       </c>
       <c r="K26" s="3">
+        <v>300</v>
+      </c>
+      <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,16 +1769,16 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>100</v>
       </c>
       <c r="I27" s="3">
         <v>300</v>
@@ -1677,34 +1787,40 @@
         <v>100</v>
       </c>
       <c r="K27" s="3">
+        <v>300</v>
+      </c>
+      <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,19 +2049,25 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1968,8 +2108,14 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,16 +2123,16 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>100</v>
       </c>
       <c r="I33" s="3">
         <v>300</v>
@@ -1995,34 +2141,40 @@
         <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>300</v>
+      </c>
+      <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2226,14 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,16 +2241,16 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>100</v>
       </c>
       <c r="I35" s="3">
         <v>300</v>
@@ -2101,92 +2259,104 @@
         <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>300</v>
+      </c>
+      <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,66 +2399,74 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="E42" s="3">
         <v>300</v>
@@ -2333,114 +2513,132 @@
       <c r="S42" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>300</v>
+      </c>
+      <c r="U42" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F43" s="3">
         <v>2200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F44" s="3">
         <v>3000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2600</v>
       </c>
       <c r="H44" s="3">
         <v>2700</v>
       </c>
       <c r="I44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J44" s="3">
         <v>2700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L44" s="3">
         <v>2300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>2100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>2600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2466,98 +2664,110 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F46" s="3">
         <v>6400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>6300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>6600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>6800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4500</v>
-      </c>
-      <c r="P46" s="3">
-        <v>5300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>5200</v>
       </c>
       <c r="R46" s="3">
         <v>5300</v>
       </c>
       <c r="S46" s="3">
+        <v>5200</v>
+      </c>
+      <c r="T46" s="3">
+        <v>5300</v>
+      </c>
+      <c r="U46" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2569,28 +2779,28 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>200</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="3">
+        <v>500</v>
+      </c>
+      <c r="N47" s="3">
+        <v>200</v>
+      </c>
+      <c r="O47" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O47" s="3">
-        <v>200</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>10</v>
+      <c r="Q47" s="3">
+        <v>200</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>10</v>
@@ -2598,8 +2808,14 @@
       <c r="S47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,22 +2823,22 @@
         <v>1200</v>
       </c>
       <c r="E48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F48" s="3">
         <v>1200</v>
       </c>
       <c r="G48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -2649,10 +2865,16 @@
         <v>200</v>
       </c>
       <c r="S48" s="3">
+        <v>200</v>
+      </c>
+      <c r="T48" s="3">
+        <v>200</v>
+      </c>
+      <c r="U48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2663,10 +2885,10 @@
         <v>800</v>
       </c>
       <c r="F49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H49" s="3">
         <v>900</v>
@@ -2675,37 +2897,43 @@
         <v>900</v>
       </c>
       <c r="J49" s="3">
+        <v>900</v>
+      </c>
+      <c r="K49" s="3">
+        <v>900</v>
+      </c>
+      <c r="L49" s="3">
         <v>1000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,19 +3044,25 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
-        <v>500</v>
-      </c>
       <c r="F52" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>500</v>
@@ -2831,31 +3071,31 @@
         <v>500</v>
       </c>
       <c r="I52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
       </c>
       <c r="L52" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N52" s="3">
         <v>600</v>
       </c>
       <c r="O52" s="3">
+        <v>500</v>
+      </c>
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3">
-        <v>300</v>
-      </c>
       <c r="Q52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="R52" s="3">
         <v>300</v>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>300</v>
+      </c>
+      <c r="U52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8900</v>
+        <v>14600</v>
       </c>
       <c r="E54" s="3">
-        <v>8900</v>
+        <v>14800</v>
       </c>
       <c r="F54" s="3">
         <v>8900</v>
       </c>
       <c r="G54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="H54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I54" s="3">
         <v>8300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>7200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>7400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3271,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,13 +3282,13 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
@@ -3035,10 +3297,10 @@
         <v>600</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K57" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
@@ -3050,13 +3312,13 @@
         <v>400</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
@@ -3064,13 +3326,19 @@
       <c r="S57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>300</v>
+      </c>
+      <c r="U57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3079,16 +3347,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3109,122 +3377,140 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1000</v>
       </c>
       <c r="G59" s="3">
         <v>900</v>
       </c>
       <c r="H59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>900</v>
+      </c>
+      <c r="J59" s="3">
         <v>1300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>800</v>
       </c>
       <c r="K59" s="3">
         <v>800</v>
       </c>
       <c r="L59" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M59" s="3">
         <v>800</v>
       </c>
       <c r="N59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O59" s="3">
+        <v>800</v>
+      </c>
+      <c r="P59" s="3">
         <v>600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>700</v>
-      </c>
-      <c r="P59" s="3">
-        <v>700</v>
       </c>
       <c r="Q59" s="3">
         <v>700</v>
       </c>
       <c r="R59" s="3">
+        <v>700</v>
+      </c>
+      <c r="S59" s="3">
+        <v>700</v>
+      </c>
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1400</v>
       </c>
       <c r="S60" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U60" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,43 +3562,49 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>900</v>
+      </c>
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>400</v>
-      </c>
-      <c r="K62" s="3">
-        <v>400</v>
       </c>
       <c r="L62" s="3">
         <v>400</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O62" s="3">
         <v>200</v>
@@ -3321,16 +3613,22 @@
         <v>200</v>
       </c>
       <c r="Q62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S62" s="3">
+        <v>100</v>
+      </c>
+      <c r="T62" s="3">
+        <v>100</v>
+      </c>
+      <c r="U62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,52 +4116,58 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F72" s="3">
         <v>3400</v>
-      </c>
-      <c r="E72" s="3">
-        <v>3700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>3700</v>
       </c>
       <c r="G72" s="3">
         <v>3700</v>
       </c>
       <c r="H72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J72" s="3">
         <v>3400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>3300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>3200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>3100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3300</v>
-      </c>
-      <c r="P72" s="3">
-        <v>3400</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>3400</v>
       </c>
       <c r="R72" s="3">
         <v>3400</v>
@@ -3827,8 +4175,14 @@
       <c r="S72" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>3400</v>
+      </c>
+      <c r="U72" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F76" s="3">
         <v>6000</v>
-      </c>
-      <c r="E76" s="3">
-        <v>6300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>6300</v>
       </c>
       <c r="G76" s="3">
         <v>6300</v>
       </c>
       <c r="H76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J76" s="3">
         <v>6000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>5900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>5500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6000</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>5900</v>
-      </c>
-      <c r="R76" s="3">
-        <v>5900</v>
       </c>
       <c r="S76" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>5900</v>
+      </c>
+      <c r="U76" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4470,78 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,16 +4549,16 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>100</v>
       </c>
       <c r="I81" s="3">
         <v>300</v>
@@ -4177,34 +4567,40 @@
         <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>300</v>
+      </c>
+      <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4242,29 +4640,29 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
-        <v>100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
-      </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
-        <v>100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>100</v>
-      </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>600</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>400</v>
-      </c>
       <c r="J89" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
         <v>400</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M89" s="3">
+        <v>400</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,13 +5056,15 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4631,17 +5073,17 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -4649,14 +5091,14 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -4667,10 +5109,16 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,13 +5229,19 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-3800</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4790,17 +5250,17 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4808,14 +5268,14 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -4826,10 +5286,16 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4870,14 +5338,14 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-100</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5547,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,52 +5562,58 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-300</v>
+        <v>-4200</v>
       </c>
       <c r="E102" s="3">
-        <v>-200</v>
+        <v>6800</v>
       </c>
       <c r="F102" s="3">
         <v>-300</v>
       </c>
       <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>SCND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H8" s="3">
         <v>2200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="I8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S8" s="3">
         <v>1900</v>
       </c>
-      <c r="F8" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>4200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3200</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O9" s="3">
         <v>1300</v>
       </c>
-      <c r="G9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="P9" s="3">
         <v>2000</v>
       </c>
-      <c r="K9" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="Q9" s="3">
+        <v>800</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S9" s="3">
         <v>1100</v>
       </c>
-      <c r="M9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P9" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1400</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="E10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="3">
         <v>700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1100</v>
       </c>
       <c r="G10" s="3">
         <v>1100</v>
       </c>
       <c r="H10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
-      </c>
-      <c r="R10" s="3">
-        <v>800</v>
       </c>
       <c r="S10" s="3">
         <v>800</v>
       </c>
       <c r="T10" s="3">
+        <v>800</v>
+      </c>
+      <c r="U10" s="3">
         <v>700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,16 +962,17 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>300</v>
@@ -968,20 +981,20 @@
         <v>300</v>
       </c>
       <c r="H12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
-        <v>100</v>
-      </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
@@ -989,11 +1002,11 @@
         <v>100</v>
       </c>
       <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3">
-        <v>100</v>
-      </c>
       <c r="Q12" s="3">
         <v>100</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,22 +1084,25 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -1100,11 +1119,11 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1112,11 +1131,11 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1124,11 +1143,14 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,67 +1231,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="E17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2300</v>
       </c>
       <c r="H17" s="3">
         <v>2100</v>
       </c>
       <c r="I17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,58 +1303,61 @@
         <v>-300</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>200</v>
       </c>
       <c r="J18" s="3">
         <v>200</v>
       </c>
       <c r="K18" s="3">
+        <v>200</v>
+      </c>
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
       <c r="S18" s="3">
         <v>100</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,23 +1379,24 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1406,75 +1439,81 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I21" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>300</v>
       </c>
       <c r="K21" s="3">
+        <v>300</v>
+      </c>
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>200</v>
       </c>
       <c r="S21" s="3">
         <v>200</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1521,85 +1560,91 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-300</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
       <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
       <c r="S23" s="3">
         <v>100</v>
       </c>
       <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1607,31 +1652,31 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>-100</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1640,10 +1685,13 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>-300</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-300</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,31 +1935,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,22 +2121,25 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2114,13 +2183,16 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
@@ -2129,52 +2201,55 @@
         <v>-300</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,13 +2307,16 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
@@ -2247,116 +2325,122 @@
         <v>-300</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,75 +2486,79 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>3400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1400</v>
       </c>
       <c r="K41" s="3">
         <v>1400</v>
       </c>
       <c r="L41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>700</v>
       </c>
       <c r="O41" s="3">
         <v>700</v>
       </c>
       <c r="P41" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E42" s="3">
         <v>4000</v>
-      </c>
-      <c r="E42" s="3">
-        <v>300</v>
       </c>
       <c r="F42" s="3">
         <v>300</v>
@@ -2519,137 +2608,146 @@
       <c r="U42" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1700</v>
-      </c>
-      <c r="T43" s="3">
-        <v>1200</v>
       </c>
       <c r="U43" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="E44" s="3">
         <v>2900</v>
       </c>
       <c r="F44" s="3">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="G44" s="3">
         <v>3000</v>
       </c>
       <c r="H44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I44" s="3">
         <v>2700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>2700</v>
       </c>
       <c r="K44" s="3">
         <v>2700</v>
       </c>
       <c r="L44" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M44" s="3">
         <v>2300</v>
       </c>
       <c r="N44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O44" s="3">
         <v>2700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2670,16 +2768,16 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
@@ -2688,75 +2786,81 @@
         <v>200</v>
       </c>
       <c r="S45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T45" s="3">
         <v>300</v>
       </c>
       <c r="U45" s="3">
+        <v>300</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E46" s="3">
         <v>12000</v>
       </c>
-      <c r="E46" s="3">
-        <v>12300</v>
-      </c>
       <c r="F46" s="3">
+        <v>12700</v>
+      </c>
+      <c r="G46" s="3">
         <v>6400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>6300</v>
       </c>
       <c r="H46" s="3">
         <v>6300</v>
       </c>
       <c r="I46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J46" s="3">
         <v>6600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2785,25 +2889,25 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>200</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R47" s="3">
         <v>200</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>10</v>
@@ -2814,19 +2918,22 @@
       <c r="U47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1200</v>
       </c>
       <c r="G48" s="3">
         <v>1200</v>
@@ -2835,13 +2942,13 @@
         <v>1200</v>
       </c>
       <c r="I48" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -2871,27 +2978,30 @@
         <v>200</v>
       </c>
       <c r="U48" s="3">
+        <v>200</v>
+      </c>
+      <c r="V48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E49" s="3">
         <v>800</v>
       </c>
       <c r="F49" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G49" s="3">
         <v>800</v>
       </c>
       <c r="H49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I49" s="3">
         <v>900</v>
@@ -2903,37 +3013,40 @@
         <v>900</v>
       </c>
       <c r="L49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="M49" s="3">
         <v>1000</v>
       </c>
       <c r="N49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O49" s="3">
         <v>1100</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1200</v>
       </c>
       <c r="P49" s="3">
         <v>1200</v>
       </c>
       <c r="Q49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R49" s="3">
         <v>1300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1400</v>
-      </c>
-      <c r="S49" s="3">
-        <v>1500</v>
       </c>
       <c r="T49" s="3">
         <v>1500</v>
       </c>
       <c r="U49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V49" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,22 +3166,25 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>600</v>
       </c>
       <c r="F52" s="3">
         <v>600</v>
       </c>
       <c r="G52" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>500</v>
@@ -3077,7 +3196,7 @@
         <v>500</v>
       </c>
       <c r="K52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
@@ -3086,19 +3205,19 @@
         <v>400</v>
       </c>
       <c r="N52" s="3">
+        <v>400</v>
+      </c>
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>500</v>
-      </c>
-      <c r="P52" s="3">
-        <v>600</v>
       </c>
       <c r="Q52" s="3">
         <v>600</v>
       </c>
       <c r="R52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="S52" s="3">
         <v>300</v>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,19 +3290,22 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E54" s="3">
         <v>14600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>8900</v>
       </c>
       <c r="G54" s="3">
         <v>8900</v>
@@ -3189,46 +3314,49 @@
         <v>8900</v>
       </c>
       <c r="I54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J54" s="3">
         <v>8300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7600</v>
-      </c>
-      <c r="L54" s="3">
-        <v>7300</v>
       </c>
       <c r="M54" s="3">
         <v>7300</v>
       </c>
       <c r="N54" s="3">
+        <v>7300</v>
+      </c>
+      <c r="O54" s="3">
         <v>7400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6800</v>
-      </c>
-      <c r="R54" s="3">
-        <v>7200</v>
       </c>
       <c r="S54" s="3">
         <v>7200</v>
       </c>
       <c r="T54" s="3">
+        <v>7200</v>
+      </c>
+      <c r="U54" s="3">
         <v>7400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,19 +3402,20 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
-        <v>400</v>
-      </c>
       <c r="F57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
@@ -3294,16 +3424,16 @@
         <v>500</v>
       </c>
       <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
@@ -3318,10 +3448,10 @@
         <v>400</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
@@ -3332,16 +3462,19 @@
       <c r="U57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3353,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3383,42 +3516,45 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>800</v>
       </c>
       <c r="L59" s="3">
         <v>800</v>
@@ -3427,16 +3563,16 @@
         <v>800</v>
       </c>
       <c r="N59" s="3">
+        <v>800</v>
+      </c>
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>700</v>
       </c>
       <c r="R59" s="3">
         <v>700</v>
@@ -3445,13 +3581,16 @@
         <v>700</v>
       </c>
       <c r="T59" s="3">
+        <v>700</v>
+      </c>
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3459,58 +3598,61 @@
         <v>2100</v>
       </c>
       <c r="E60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3577,28 +3722,28 @@
         <v>1000</v>
       </c>
       <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1200</v>
       </c>
       <c r="G62" s="3">
         <v>1200</v>
       </c>
       <c r="H62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
-      </c>
-      <c r="L62" s="3">
-        <v>400</v>
       </c>
       <c r="M62" s="3">
         <v>400</v>
@@ -3607,7 +3752,7 @@
         <v>400</v>
       </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="P62" s="3">
         <v>200</v>
@@ -3619,16 +3764,19 @@
         <v>200</v>
       </c>
       <c r="S62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T62" s="3">
         <v>100</v>
       </c>
       <c r="U62" s="3">
+        <v>100</v>
+      </c>
+      <c r="V62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,8 +3958,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3816,55 +3973,58 @@
         <v>3100</v>
       </c>
       <c r="F66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
-      </c>
-      <c r="T66" s="3">
-        <v>1600</v>
       </c>
       <c r="U66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,22 +4292,25 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E72" s="3">
         <v>2800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>3700</v>
       </c>
       <c r="H72" s="3">
         <v>3700</v>
@@ -4146,31 +4319,31 @@
         <v>3700</v>
       </c>
       <c r="J72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K72" s="3">
         <v>3400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3300</v>
-      </c>
-      <c r="R72" s="3">
-        <v>3400</v>
       </c>
       <c r="S72" s="3">
         <v>3400</v>
@@ -4181,8 +4354,11 @@
       <c r="U72" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,22 +4540,25 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E76" s="3">
         <v>11500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>6300</v>
       </c>
       <c r="H76" s="3">
         <v>6300</v>
@@ -4382,34 +4567,34 @@
         <v>6300</v>
       </c>
       <c r="J76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K76" s="3">
         <v>6000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5700</v>
-      </c>
-      <c r="N76" s="3">
-        <v>5500</v>
       </c>
       <c r="O76" s="3">
         <v>5500</v>
       </c>
       <c r="P76" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Q76" s="3">
         <v>5600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6000</v>
-      </c>
-      <c r="S76" s="3">
-        <v>5900</v>
       </c>
       <c r="T76" s="3">
         <v>5900</v>
@@ -4417,8 +4602,11 @@
       <c r="U76" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,77 +4664,83 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
@@ -4555,52 +4749,55 @@
         <v>-300</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4646,14 +4844,14 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
-        <v>100</v>
-      </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
@@ -4661,11 +4859,11 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
-        <v>100</v>
-      </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
@@ -4681,8 +4879,11 @@
       <c r="U83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,17 +5277,18 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -5079,13 +5299,13 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5097,11 +5317,11 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -5115,10 +5335,13 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,17 +5461,20 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3800</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5256,13 +5485,13 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5274,11 +5503,11 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5292,10 +5521,13 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5344,11 +5577,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5562,11 +5807,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>6200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5574,17 +5819,17 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5592,28 +5837,31 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>SCND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,220 +665,230 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>4200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3200</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>3200</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="T8" s="3">
-        <v>2700</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P9" s="3">
         <v>1300</v>
       </c>
-      <c r="E9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="Q9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R9" s="3">
+        <v>800</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T9" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>800</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1400</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1100</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,61 +896,64 @@
         <v>1400</v>
       </c>
       <c r="E10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1100</v>
       </c>
       <c r="H10" s="3">
         <v>1100</v>
       </c>
       <c r="I10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J10" s="3">
         <v>1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
-      </c>
-      <c r="S10" s="3">
-        <v>800</v>
       </c>
       <c r="T10" s="3">
         <v>800</v>
       </c>
       <c r="U10" s="3">
+        <v>800</v>
+      </c>
+      <c r="V10" s="3">
         <v>700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,19 +976,20 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E12" s="3">
+        <v>600</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>300</v>
       </c>
       <c r="G12" s="3">
         <v>300</v>
@@ -984,20 +998,20 @@
         <v>300</v>
       </c>
       <c r="I12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3">
-        <v>100</v>
-      </c>
       <c r="N12" s="3">
         <v>100</v>
       </c>
@@ -1005,11 +1019,11 @@
         <v>100</v>
       </c>
       <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3">
-        <v>100</v>
-      </c>
       <c r="R12" s="3">
         <v>100</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,25 +1104,28 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1122,11 +1142,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1134,11 +1154,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1146,11 +1166,14 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3000</v>
+        <v>4400</v>
       </c>
       <c r="E17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
-        <v>2700</v>
-      </c>
       <c r="H17" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="I17" s="3">
         <v>2100</v>
       </c>
       <c r="J17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>200</v>
       </c>
       <c r="K18" s="3">
         <v>200</v>
       </c>
       <c r="L18" s="3">
+        <v>200</v>
+      </c>
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
-        <v>100</v>
-      </c>
       <c r="T18" s="3">
         <v>100</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,22 +1413,23 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1442,70 +1476,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-300</v>
-      </c>
       <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>300</v>
       </c>
       <c r="L21" s="3">
+        <v>300</v>
+      </c>
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>200</v>
       </c>
       <c r="T21" s="3">
         <v>200</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1515,8 +1555,8 @@
       <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1563,88 +1603,94 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-400</v>
-      </c>
       <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-300</v>
       </c>
       <c r="Q23" s="3">
         <v>-300</v>
       </c>
       <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
-        <v>100</v>
-      </c>
       <c r="T23" s="3">
         <v>100</v>
       </c>
       <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
-        <v>-100</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1655,31 +1701,31 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>-100</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1688,10 +1734,13 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-300</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
       </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>100</v>
-      </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-300</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>100</v>
-      </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,19 +1996,22 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F29" s="3">
         <v>-100</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1958,14 +2019,14 @@
       <c r="H29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
+      <c r="I29" s="3">
+        <v>-100</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,22 +2191,25 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2186,16 +2256,19 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-600</v>
+        <v>-1400</v>
       </c>
       <c r="E33" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="F33" s="3">
         <v>-300</v>
@@ -2204,52 +2277,55 @@
         <v>-300</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>100</v>
-      </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,16 +2386,19 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-600</v>
+        <v>-1400</v>
       </c>
       <c r="E35" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="F35" s="3">
         <v>-300</v>
@@ -2328,119 +2407,125 @@
         <v>-300</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>100</v>
-      </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,81 +2573,85 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1400</v>
       </c>
       <c r="L41" s="3">
         <v>1400</v>
       </c>
       <c r="M41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>700</v>
       </c>
       <c r="P41" s="3">
         <v>700</v>
       </c>
       <c r="Q41" s="3">
+        <v>700</v>
+      </c>
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E42" s="3">
         <v>5800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>4000</v>
-      </c>
-      <c r="F42" s="3">
-        <v>300</v>
       </c>
       <c r="G42" s="3">
         <v>300</v>
@@ -2611,147 +2701,156 @@
       <c r="V42" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1700</v>
-      </c>
-      <c r="U43" s="3">
-        <v>1200</v>
       </c>
       <c r="V43" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E44" s="3">
         <v>2600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2500</v>
-      </c>
-      <c r="G44" s="3">
-        <v>3000</v>
       </c>
       <c r="H44" s="3">
         <v>3000</v>
       </c>
       <c r="I44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J44" s="3">
         <v>2700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2600</v>
-      </c>
-      <c r="K44" s="3">
-        <v>2700</v>
       </c>
       <c r="L44" s="3">
         <v>2700</v>
       </c>
       <c r="M44" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="N44" s="3">
         <v>2300</v>
       </c>
       <c r="O44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P44" s="3">
         <v>2700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
@@ -2771,16 +2870,16 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
@@ -2789,78 +2888,84 @@
         <v>200</v>
       </c>
       <c r="T45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>300</v>
       </c>
       <c r="V45" s="3">
+        <v>300</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E46" s="3">
         <v>11700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>6300</v>
       </c>
       <c r="I46" s="3">
         <v>6300</v>
       </c>
       <c r="J46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K46" s="3">
         <v>6600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2892,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>200</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S47" s="3">
         <v>200</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>10</v>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2930,13 +3038,13 @@
         <v>1100</v>
       </c>
       <c r="E48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1200</v>
       </c>
       <c r="H48" s="3">
         <v>1200</v>
@@ -2945,13 +3053,13 @@
         <v>1200</v>
       </c>
       <c r="J48" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -2981,10 +3089,13 @@
         <v>200</v>
       </c>
       <c r="V48" s="3">
+        <v>200</v>
+      </c>
+      <c r="W48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2992,19 +3103,19 @@
         <v>400</v>
       </c>
       <c r="E49" s="3">
+        <v>400</v>
+      </c>
+      <c r="F49" s="3">
         <v>800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>800</v>
       </c>
       <c r="H49" s="3">
         <v>800</v>
       </c>
       <c r="I49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J49" s="3">
         <v>900</v>
@@ -3016,37 +3127,40 @@
         <v>900</v>
       </c>
       <c r="M49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N49" s="3">
         <v>1000</v>
       </c>
       <c r="O49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P49" s="3">
         <v>1100</v>
-      </c>
-      <c r="P49" s="3">
-        <v>1200</v>
       </c>
       <c r="Q49" s="3">
         <v>1200</v>
       </c>
       <c r="R49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S49" s="3">
         <v>1300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1400</v>
-      </c>
-      <c r="T49" s="3">
-        <v>1500</v>
       </c>
       <c r="U49" s="3">
         <v>1500</v>
       </c>
       <c r="V49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W49" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,25 +3286,28 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
       </c>
       <c r="H52" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
@@ -3199,7 +3319,7 @@
         <v>500</v>
       </c>
       <c r="L52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M52" s="3">
         <v>400</v>
@@ -3208,19 +3328,19 @@
         <v>400</v>
       </c>
       <c r="O52" s="3">
+        <v>400</v>
+      </c>
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>500</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>600</v>
       </c>
       <c r="R52" s="3">
         <v>600</v>
       </c>
       <c r="S52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="T52" s="3">
         <v>300</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,22 +3416,25 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E54" s="3">
         <v>14100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>8900</v>
       </c>
       <c r="H54" s="3">
         <v>8900</v>
@@ -3317,46 +3443,49 @@
         <v>8900</v>
       </c>
       <c r="J54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K54" s="3">
         <v>8300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7600</v>
-      </c>
-      <c r="M54" s="3">
-        <v>7300</v>
       </c>
       <c r="N54" s="3">
         <v>7300</v>
       </c>
       <c r="O54" s="3">
+        <v>7300</v>
+      </c>
+      <c r="P54" s="3">
         <v>7400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6800</v>
-      </c>
-      <c r="S54" s="3">
-        <v>7200</v>
       </c>
       <c r="T54" s="3">
         <v>7200</v>
       </c>
       <c r="U54" s="3">
+        <v>7200</v>
+      </c>
+      <c r="V54" s="3">
         <v>7400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,22 +3533,23 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
@@ -3427,16 +3558,16 @@
         <v>500</v>
       </c>
       <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
@@ -3451,10 +3582,10 @@
         <v>400</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
@@ -3465,19 +3596,22 @@
       <c r="V57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3489,13 +3623,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3519,16 +3653,19 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,28 +3673,28 @@
         <v>1300</v>
       </c>
       <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>800</v>
       </c>
       <c r="M59" s="3">
         <v>800</v>
@@ -3566,16 +3703,16 @@
         <v>800</v>
       </c>
       <c r="O59" s="3">
+        <v>800</v>
+      </c>
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>700</v>
       </c>
       <c r="S59" s="3">
         <v>700</v>
@@ -3584,75 +3721,81 @@
         <v>700</v>
       </c>
       <c r="U59" s="3">
+        <v>700</v>
+      </c>
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="E60" s="3">
         <v>2100</v>
       </c>
       <c r="F60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,40 +3856,43 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="3">
         <v>1000</v>
       </c>
       <c r="F62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G62" s="3">
         <v>900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1200</v>
       </c>
       <c r="H62" s="3">
         <v>1200</v>
       </c>
       <c r="I62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
-      </c>
-      <c r="M62" s="3">
-        <v>400</v>
       </c>
       <c r="N62" s="3">
         <v>400</v>
@@ -3755,7 +3901,7 @@
         <v>400</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Q62" s="3">
         <v>200</v>
@@ -3767,16 +3913,19 @@
         <v>200</v>
       </c>
       <c r="T62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U62" s="3">
         <v>100</v>
       </c>
       <c r="V62" s="3">
+        <v>100</v>
+      </c>
+      <c r="W62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3976,55 +4134,58 @@
         <v>3100</v>
       </c>
       <c r="G66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1600</v>
       </c>
       <c r="V66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,25 +4466,28 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>700</v>
+      </c>
+      <c r="E72" s="3">
         <v>2100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>3700</v>
       </c>
       <c r="I72" s="3">
         <v>3700</v>
@@ -4322,31 +4496,31 @@
         <v>3700</v>
       </c>
       <c r="K72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L72" s="3">
         <v>3400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3300</v>
-      </c>
-      <c r="S72" s="3">
-        <v>3400</v>
       </c>
       <c r="T72" s="3">
         <v>3400</v>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,25 +4726,28 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E76" s="3">
         <v>11000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>6300</v>
       </c>
       <c r="I76" s="3">
         <v>6300</v>
@@ -4570,34 +4756,34 @@
         <v>6300</v>
       </c>
       <c r="K76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="L76" s="3">
         <v>6000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5700</v>
-      </c>
-      <c r="O76" s="3">
-        <v>5500</v>
       </c>
       <c r="P76" s="3">
         <v>5500</v>
       </c>
       <c r="Q76" s="3">
+        <v>5500</v>
+      </c>
+      <c r="R76" s="3">
         <v>5600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6000</v>
-      </c>
-      <c r="T76" s="3">
-        <v>5900</v>
       </c>
       <c r="U76" s="3">
         <v>5900</v>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,83 +4856,89 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-600</v>
+        <v>-1400</v>
       </c>
       <c r="E81" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="F81" s="3">
         <v>-300</v>
@@ -4752,52 +4947,55 @@
         <v>-300</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>100</v>
-      </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4847,14 +5046,14 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
-        <v>100</v>
-      </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
@@ -4862,11 +5061,11 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
-        <v>100</v>
-      </c>
       <c r="R83" s="3">
         <v>100</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-800</v>
+        <v>-1400</v>
       </c>
       <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,19 +5498,20 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5302,13 +5523,13 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5320,11 +5541,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -5338,10 +5559,13 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,20 +5691,23 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1400</v>
+        <v>500</v>
       </c>
       <c r="E94" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3800</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5488,13 +5718,13 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5506,11 +5736,11 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5524,10 +5754,13 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5580,11 +5814,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,23 +6041,26 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>6200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5822,17 +6068,17 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5840,28 +6086,31 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2200</v>
+        <v>-500</v>
       </c>
       <c r="E102" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>SCND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,321 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E8" s="3">
         <v>2500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G8" s="3">
         <v>4700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
       </c>
-      <c r="G8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J8" s="3">
         <v>2100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2000</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3200</v>
-      </c>
-      <c r="P8" s="3">
-        <v>2100</v>
       </c>
       <c r="Q8" s="3">
         <v>3200</v>
       </c>
       <c r="R8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="T8" s="3">
         <v>1300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1200</v>
       </c>
       <c r="H9" s="3">
         <v>1000</v>
       </c>
       <c r="I9" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="J9" s="3">
         <v>1000</v>
       </c>
       <c r="K9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="3">
         <v>1600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1100</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1300</v>
       </c>
       <c r="Q9" s="3">
         <v>2000</v>
       </c>
       <c r="R9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T9" s="3">
         <v>800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3">
-        <v>700</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>600</v>
+      </c>
+      <c r="J10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>900</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P10" s="3">
-        <v>800</v>
       </c>
       <c r="Q10" s="3">
         <v>1200</v>
       </c>
       <c r="R10" s="3">
+        <v>800</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,37 +1003,39 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E12" s="3">
         <v>600</v>
       </c>
       <c r="F12" s="3">
+        <v>500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>600</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>300</v>
       </c>
       <c r="I12" s="3">
         <v>300</v>
       </c>
       <c r="J12" s="3">
+        <v>300</v>
+      </c>
+      <c r="K12" s="3">
+        <v>300</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
@@ -1016,20 +1044,20 @@
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
       <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="R12" s="3">
-        <v>100</v>
-      </c>
-      <c r="S12" s="3">
-        <v>100</v>
-      </c>
       <c r="T12" s="3">
         <v>100</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,31 +1141,37 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1145,35 +1185,41 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1311,10 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,129 +1322,141 @@
         <v>4400</v>
       </c>
       <c r="E17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G17" s="3">
         <v>5200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>3900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>3500</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="X17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
-        <v>2200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="U17" s="3">
-        <v>2600</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>100</v>
-      </c>
-      <c r="U18" s="3">
-        <v>100</v>
-      </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W18" s="3">
+        <v>100</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,28 +1480,30 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1479,40 +1547,46 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>500</v>
       </c>
       <c r="N21" s="3">
         <v>300</v>
@@ -1521,31 +1595,37 @@
         <v>500</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="R21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
       <c r="T21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1558,11 +1638,11 @@
       <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1606,40 +1686,46 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>200</v>
       </c>
       <c r="M23" s="3">
         <v>300</v>
@@ -1648,54 +1734,60 @@
         <v>200</v>
       </c>
       <c r="O23" s="3">
+        <v>300</v>
+      </c>
+      <c r="P23" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
-        <v>100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
       <c r="V23" s="3">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-400</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1704,43 +1796,49 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
       <c r="W24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,19 +1902,25 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
@@ -1825,16 +1929,16 @@
         <v>-200</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>-400</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>100</v>
       </c>
       <c r="M26" s="3">
         <v>300</v>
@@ -1843,45 +1947,51 @@
         <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>300</v>
+      </c>
+      <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
@@ -1890,16 +2000,16 @@
         <v>-200</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>-400</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>100</v>
       </c>
       <c r="M27" s="3">
         <v>300</v>
@@ -1908,34 +2018,40 @@
         <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>300</v>
+      </c>
+      <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2008,32 +2130,32 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-600</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H29" s="3">
         <v>-100</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,28 +2328,34 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2259,37 +2399,43 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>100</v>
       </c>
       <c r="M33" s="3">
         <v>300</v>
@@ -2298,34 +2444,40 @@
         <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>300</v>
+      </c>
+      <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,37 +2541,43 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>100</v>
       </c>
       <c r="M35" s="3">
         <v>300</v>
@@ -2428,104 +2586,116 @@
         <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>300</v>
+      </c>
+      <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,90 +2746,98 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>7600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F42" s="3">
         <v>5300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>5800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>4000</v>
-      </c>
-      <c r="G42" s="3">
-        <v>300</v>
-      </c>
-      <c r="H42" s="3">
-        <v>300</v>
       </c>
       <c r="I42" s="3">
         <v>300</v>
@@ -2704,159 +2884,177 @@
       <c r="W42" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F43" s="3">
         <v>2200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="E44" s="3">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="F44" s="3">
         <v>2900</v>
       </c>
       <c r="G44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I44" s="3">
         <v>2500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>2600</v>
       </c>
       <c r="L44" s="3">
         <v>2700</v>
       </c>
       <c r="M44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N44" s="3">
         <v>2700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P44" s="3">
         <v>2300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>2400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>2300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>2000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>2200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>2100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>2600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
@@ -2873,99 +3071,111 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
       </c>
       <c r="U45" s="3">
+        <v>200</v>
+      </c>
+      <c r="V45" s="3">
+        <v>200</v>
+      </c>
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F46" s="3">
         <v>11200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>11700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>12000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>12700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>6400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4500</v>
-      </c>
-      <c r="T46" s="3">
-        <v>5300</v>
-      </c>
-      <c r="U46" s="3">
-        <v>5200</v>
       </c>
       <c r="V46" s="3">
         <v>5300</v>
       </c>
       <c r="W46" s="3">
+        <v>5200</v>
+      </c>
+      <c r="X46" s="3">
+        <v>5300</v>
+      </c>
+      <c r="Y46" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3000,28 +3210,28 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>200</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="Q47" s="3">
+        <v>500</v>
+      </c>
+      <c r="R47" s="3">
+        <v>200</v>
+      </c>
+      <c r="S47" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S47" s="3">
-        <v>200</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>10</v>
+      <c r="U47" s="3">
+        <v>200</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>10</v>
@@ -3029,8 +3239,14 @@
       <c r="W47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3041,7 +3257,7 @@
         <v>1100</v>
       </c>
       <c r="F48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G48" s="3">
         <v>1100</v>
@@ -3050,22 +3266,22 @@
         <v>1200</v>
       </c>
       <c r="I48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J48" s="3">
         <v>1200</v>
       </c>
       <c r="K48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
@@ -3092,21 +3308,27 @@
         <v>200</v>
       </c>
       <c r="W48" s="3">
+        <v>200</v>
+      </c>
+      <c r="X48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F49" s="3">
         <v>400</v>
-      </c>
-      <c r="E49" s="3">
-        <v>400</v>
-      </c>
-      <c r="F49" s="3">
-        <v>800</v>
       </c>
       <c r="G49" s="3">
         <v>400</v>
@@ -3115,13 +3337,13 @@
         <v>800</v>
       </c>
       <c r="I49" s="3">
+        <v>400</v>
+      </c>
+      <c r="J49" s="3">
         <v>800</v>
       </c>
-      <c r="J49" s="3">
-        <v>900</v>
-      </c>
       <c r="K49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="L49" s="3">
         <v>900</v>
@@ -3130,37 +3352,43 @@
         <v>900</v>
       </c>
       <c r="N49" s="3">
+        <v>900</v>
+      </c>
+      <c r="O49" s="3">
+        <v>900</v>
+      </c>
+      <c r="P49" s="3">
         <v>1000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,31 +3523,37 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>500</v>
       </c>
       <c r="K52" s="3">
         <v>500</v>
@@ -3322,31 +3562,31 @@
         <v>500</v>
       </c>
       <c r="M52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O52" s="3">
         <v>400</v>
       </c>
       <c r="P52" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R52" s="3">
         <v>600</v>
       </c>
       <c r="S52" s="3">
+        <v>500</v>
+      </c>
+      <c r="T52" s="3">
         <v>600</v>
       </c>
-      <c r="T52" s="3">
-        <v>300</v>
-      </c>
       <c r="U52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="V52" s="3">
         <v>300</v>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F54" s="3">
         <v>13900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>14100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>14600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>14800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>8900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>8900</v>
       </c>
       <c r="J54" s="3">
         <v>8900</v>
       </c>
       <c r="K54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="L54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="M54" s="3">
         <v>8300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>7000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>6800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>7200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>7200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>7400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,34 +3794,36 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>600</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
       </c>
       <c r="I57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
       </c>
       <c r="K57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
@@ -3570,10 +3832,10 @@
         <v>600</v>
       </c>
       <c r="N57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O57" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
@@ -3585,13 +3847,13 @@
         <v>400</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="T57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
@@ -3599,25 +3861,31 @@
       <c r="W57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3626,16 +3894,16 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3656,146 +3924,164 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>900</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1000</v>
       </c>
       <c r="K59" s="3">
         <v>900</v>
       </c>
       <c r="L59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M59" s="3">
+        <v>900</v>
+      </c>
+      <c r="N59" s="3">
         <v>1300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>800</v>
       </c>
       <c r="O59" s="3">
         <v>800</v>
       </c>
       <c r="P59" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q59" s="3">
         <v>800</v>
       </c>
       <c r="R59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S59" s="3">
+        <v>800</v>
+      </c>
+      <c r="T59" s="3">
         <v>600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>700</v>
-      </c>
-      <c r="T59" s="3">
-        <v>700</v>
       </c>
       <c r="U59" s="3">
         <v>700</v>
       </c>
       <c r="V59" s="3">
+        <v>700</v>
+      </c>
+      <c r="W59" s="3">
+        <v>700</v>
+      </c>
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1000</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1400</v>
       </c>
       <c r="W60" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,55 +4145,61 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>500</v>
+      </c>
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
-      </c>
-      <c r="N62" s="3">
-        <v>400</v>
-      </c>
-      <c r="O62" s="3">
-        <v>400</v>
       </c>
       <c r="P62" s="3">
         <v>400</v>
       </c>
       <c r="Q62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="S62" s="3">
         <v>200</v>
@@ -3916,16 +4208,22 @@
         <v>200</v>
       </c>
       <c r="U62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W62" s="3">
+        <v>100</v>
+      </c>
+      <c r="X62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,16 +4429,22 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="E66" s="3">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="F66" s="3">
         <v>3100</v>
@@ -4137,55 +4453,61 @@
         <v>3100</v>
       </c>
       <c r="H66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,64 +4811,70 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F72" s="3">
         <v>700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>3000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>3400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>3700</v>
       </c>
       <c r="K72" s="3">
         <v>3700</v>
       </c>
       <c r="L72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N72" s="3">
         <v>3400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>3000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>3100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>3300</v>
-      </c>
-      <c r="T72" s="3">
-        <v>3400</v>
-      </c>
-      <c r="U72" s="3">
-        <v>3400</v>
       </c>
       <c r="V72" s="3">
         <v>3400</v>
@@ -4534,8 +4882,14 @@
       <c r="W72" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F76" s="3">
         <v>10800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>11000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>11500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>11700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>6300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>6300</v>
       </c>
       <c r="K76" s="3">
         <v>6300</v>
       </c>
       <c r="L76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="M76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="N76" s="3">
         <v>6000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>5700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>5500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>5600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>5800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>6000</v>
-      </c>
-      <c r="U76" s="3">
-        <v>5900</v>
-      </c>
-      <c r="V76" s="3">
-        <v>5900</v>
       </c>
       <c r="W76" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,107 +5237,119 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>100</v>
       </c>
       <c r="M81" s="3">
         <v>300</v>
@@ -4968,34 +5358,40 @@
         <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>300</v>
+      </c>
+      <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,13 +5415,15 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -5034,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -5049,29 +5447,29 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
-        <v>100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>100</v>
-      </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
       <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
-        <v>100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>100</v>
-      </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
@@ -5084,8 +5482,14 @@
       <c r="W83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>400</v>
-      </c>
       <c r="N89" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
         <v>400</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q89" s="3">
+        <v>400</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,25 +5939,27 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5526,17 +5968,17 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -5544,14 +5986,14 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
@@ -5562,10 +6004,16 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,26 +6148,32 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F94" s="3">
         <v>500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3800</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5721,17 +6181,17 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5739,14 +6199,14 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -5757,10 +6217,16 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5817,14 +6285,14 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,96 +6530,108 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>6200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -6174,69 +6672,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-6400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-4200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>6800</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-200</v>
       </c>
       <c r="J102" s="3">
         <v>-300</v>
       </c>
       <c r="K102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>SCND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,111 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -774,212 +777,221 @@
         <v>2900</v>
       </c>
       <c r="E8" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="F8" s="3">
         <v>2500</v>
       </c>
       <c r="G8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H8" s="3">
         <v>4700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1100</v>
       </c>
       <c r="K10" s="3">
         <v>1100</v>
       </c>
       <c r="L10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M10" s="3">
         <v>1000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>600</v>
-      </c>
-      <c r="V10" s="3">
-        <v>800</v>
       </c>
       <c r="W10" s="3">
         <v>800</v>
       </c>
       <c r="X10" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y10" s="3">
         <v>700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,28 +1017,29 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E12" s="3">
         <v>600</v>
       </c>
       <c r="F12" s="3">
+        <v>600</v>
+      </c>
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>300</v>
       </c>
       <c r="J12" s="3">
         <v>300</v>
@@ -1035,19 +1048,19 @@
         <v>300</v>
       </c>
       <c r="L12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
       </c>
       <c r="N12" s="3">
+        <v>200</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
-      </c>
-      <c r="P12" s="3">
-        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
@@ -1056,10 +1069,10 @@
         <v>100</v>
       </c>
       <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
         <v>300</v>
-      </c>
-      <c r="T12" s="3">
-        <v>100</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1158,23 +1177,23 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1191,11 +1210,11 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1203,11 +1222,11 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1215,11 +1234,14 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2200</v>
       </c>
       <c r="I17" s="3">
         <v>2200</v>
       </c>
       <c r="J17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2100</v>
       </c>
       <c r="L17" s="3">
         <v>2100</v>
       </c>
       <c r="M17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>200</v>
       </c>
       <c r="N18" s="3">
         <v>200</v>
       </c>
       <c r="O18" s="3">
+        <v>200</v>
+      </c>
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-300</v>
       </c>
       <c r="T18" s="3">
         <v>-300</v>
       </c>
       <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
-      </c>
-      <c r="V18" s="3">
-        <v>100</v>
       </c>
       <c r="W18" s="3">
         <v>100</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,32 +1514,33 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1553,79 +1586,85 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <v>300</v>
       </c>
       <c r="O21" s="3">
+        <v>300</v>
+      </c>
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
-      </c>
-      <c r="V21" s="3">
-        <v>200</v>
       </c>
       <c r="W21" s="3">
         <v>200</v>
       </c>
       <c r="X21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1644,8 +1683,8 @@
       <c r="H22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1692,106 +1731,112 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1800</v>
       </c>
       <c r="F23" s="3">
         <v>-1800</v>
       </c>
       <c r="G23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-300</v>
       </c>
       <c r="T23" s="3">
         <v>-300</v>
       </c>
       <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
-      </c>
-      <c r="V23" s="3">
-        <v>100</v>
       </c>
       <c r="W23" s="3">
         <v>100</v>
       </c>
       <c r="X23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1802,31 +1847,31 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>-100</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -1835,10 +1880,13 @@
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2136,28 +2196,28 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
+      <c r="L29" s="3">
+        <v>-100</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,32 +2400,35 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2405,79 +2474,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1400</v>
       </c>
       <c r="F33" s="3">
         <v>-1400</v>
       </c>
       <c r="G33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1400</v>
       </c>
       <c r="F35" s="3">
         <v>-1400</v>
       </c>
       <c r="G35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,99 +2833,103 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E41" s="3">
         <v>5300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1400</v>
       </c>
       <c r="O41" s="3">
         <v>1400</v>
       </c>
       <c r="P41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>700</v>
       </c>
       <c r="S41" s="3">
         <v>700</v>
       </c>
       <c r="T41" s="3">
+        <v>700</v>
+      </c>
+      <c r="U41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E42" s="3">
         <v>7000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>4000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>300</v>
       </c>
       <c r="J42" s="3">
         <v>300</v>
@@ -2890,150 +2979,159 @@
       <c r="Y42" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="E43" s="3">
         <v>1600</v>
       </c>
       <c r="F43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G43" s="3">
         <v>2200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1700</v>
-      </c>
-      <c r="X43" s="3">
-        <v>1200</v>
       </c>
       <c r="Y43" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E44" s="3">
         <v>3100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>3000</v>
       </c>
       <c r="K44" s="3">
         <v>3000</v>
       </c>
       <c r="L44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M44" s="3">
         <v>2700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2600</v>
-      </c>
-      <c r="N44" s="3">
-        <v>2700</v>
       </c>
       <c r="O44" s="3">
         <v>2700</v>
       </c>
       <c r="P44" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="Q44" s="3">
         <v>2300</v>
       </c>
       <c r="R44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S44" s="3">
         <v>2700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3041,22 +3139,22 @@
         <v>600</v>
       </c>
       <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -3077,16 +3175,16 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
@@ -3095,87 +3193,93 @@
         <v>200</v>
       </c>
       <c r="W45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X45" s="3">
         <v>300</v>
       </c>
       <c r="Y45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E46" s="3">
         <v>17500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>6300</v>
       </c>
       <c r="L46" s="3">
         <v>6300</v>
       </c>
       <c r="M46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="N46" s="3">
         <v>6600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3216,25 +3320,25 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>200</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V47" s="3">
         <v>200</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>10</v>
@@ -3245,13 +3349,16 @@
       <c r="Y47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="E48" s="3">
         <v>1100</v>
@@ -3263,13 +3370,13 @@
         <v>1100</v>
       </c>
       <c r="H48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I48" s="3">
         <v>1200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1200</v>
       </c>
       <c r="K48" s="3">
         <v>1200</v>
@@ -3278,13 +3385,13 @@
         <v>1200</v>
       </c>
       <c r="M48" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="N48" s="3">
         <v>300</v>
       </c>
       <c r="O48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -3314,39 +3421,42 @@
         <v>200</v>
       </c>
       <c r="Y48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E49" s="3">
         <v>6800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>400</v>
       </c>
       <c r="G49" s="3">
         <v>400</v>
       </c>
       <c r="H49" s="3">
+        <v>400</v>
+      </c>
+      <c r="I49" s="3">
         <v>800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>800</v>
       </c>
       <c r="K49" s="3">
         <v>800</v>
       </c>
       <c r="L49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="M49" s="3">
         <v>900</v>
@@ -3358,37 +3468,40 @@
         <v>900</v>
       </c>
       <c r="P49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q49" s="3">
         <v>1000</v>
       </c>
       <c r="R49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S49" s="3">
         <v>1100</v>
-      </c>
-      <c r="S49" s="3">
-        <v>1200</v>
       </c>
       <c r="T49" s="3">
         <v>1200</v>
       </c>
       <c r="U49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V49" s="3">
         <v>1300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1400</v>
-      </c>
-      <c r="W49" s="3">
-        <v>1500</v>
       </c>
       <c r="X49" s="3">
         <v>1500</v>
       </c>
       <c r="Y49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z49" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,34 +3645,37 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E52" s="3">
         <v>2900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>600</v>
       </c>
       <c r="J52" s="3">
         <v>600</v>
       </c>
       <c r="K52" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L52" s="3">
         <v>500</v>
@@ -3568,7 +3687,7 @@
         <v>500</v>
       </c>
       <c r="O52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P52" s="3">
         <v>400</v>
@@ -3577,19 +3696,19 @@
         <v>400</v>
       </c>
       <c r="R52" s="3">
+        <v>400</v>
+      </c>
+      <c r="S52" s="3">
         <v>600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>500</v>
-      </c>
-      <c r="T52" s="3">
-        <v>600</v>
       </c>
       <c r="U52" s="3">
         <v>600</v>
       </c>
       <c r="V52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="W52" s="3">
         <v>300</v>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,31 +3793,34 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E54" s="3">
         <v>28200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>8900</v>
       </c>
       <c r="K54" s="3">
         <v>8900</v>
@@ -3704,46 +3829,49 @@
         <v>8900</v>
       </c>
       <c r="M54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="N54" s="3">
         <v>8300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7600</v>
-      </c>
-      <c r="P54" s="3">
-        <v>7300</v>
       </c>
       <c r="Q54" s="3">
         <v>7300</v>
       </c>
       <c r="R54" s="3">
+        <v>7300</v>
+      </c>
+      <c r="S54" s="3">
         <v>7400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6800</v>
-      </c>
-      <c r="V54" s="3">
-        <v>7200</v>
       </c>
       <c r="W54" s="3">
         <v>7200</v>
       </c>
       <c r="X54" s="3">
+        <v>7200</v>
+      </c>
+      <c r="Y54" s="3">
         <v>7400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,31 +3925,32 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>500</v>
@@ -3829,16 +3959,16 @@
         <v>500</v>
       </c>
       <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
@@ -3853,10 +3983,10 @@
         <v>400</v>
       </c>
       <c r="U57" s="3">
+        <v>400</v>
+      </c>
+      <c r="V57" s="3">
         <v>100</v>
-      </c>
-      <c r="V57" s="3">
-        <v>300</v>
       </c>
       <c r="W57" s="3">
         <v>300</v>
@@ -3867,29 +3997,32 @@
       <c r="Y57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -3900,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3930,54 +4063,57 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>300</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1300</v>
       </c>
       <c r="G59" s="3">
         <v>1300</v>
       </c>
       <c r="H59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>800</v>
       </c>
       <c r="P59" s="3">
         <v>800</v>
@@ -3986,16 +4122,16 @@
         <v>800</v>
       </c>
       <c r="R59" s="3">
+        <v>800</v>
+      </c>
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
-      </c>
-      <c r="U59" s="3">
-        <v>700</v>
       </c>
       <c r="V59" s="3">
         <v>700</v>
@@ -4004,13 +4140,16 @@
         <v>700</v>
       </c>
       <c r="X59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4018,70 +4157,73 @@
         <v>2000</v>
       </c>
       <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2100</v>
       </c>
       <c r="H60" s="3">
         <v>2100</v>
       </c>
       <c r="I60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,49 +4293,52 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="E62" s="3">
         <v>500</v>
       </c>
       <c r="F62" s="3">
+        <v>500</v>
+      </c>
+      <c r="G62" s="3">
         <v>1200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1000</v>
       </c>
       <c r="H62" s="3">
         <v>1000</v>
       </c>
       <c r="I62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J62" s="3">
         <v>900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1200</v>
       </c>
       <c r="K62" s="3">
         <v>1200</v>
       </c>
       <c r="L62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>300</v>
-      </c>
-      <c r="P62" s="3">
-        <v>400</v>
       </c>
       <c r="Q62" s="3">
         <v>400</v>
@@ -4202,7 +4347,7 @@
         <v>400</v>
       </c>
       <c r="S62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T62" s="3">
         <v>200</v>
@@ -4214,16 +4359,19 @@
         <v>200</v>
       </c>
       <c r="W62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X62" s="3">
         <v>100</v>
       </c>
       <c r="Y62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,19 +4589,22 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>3100</v>
       </c>
       <c r="G66" s="3">
         <v>3100</v>
@@ -4459,55 +4616,58 @@
         <v>3100</v>
       </c>
       <c r="J66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1400</v>
-      </c>
-      <c r="X66" s="3">
-        <v>1600</v>
       </c>
       <c r="Y66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,34 +4987,37 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>3700</v>
       </c>
       <c r="L72" s="3">
         <v>3700</v>
@@ -4853,31 +5026,31 @@
         <v>3700</v>
       </c>
       <c r="N72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O72" s="3">
         <v>3400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3300</v>
-      </c>
-      <c r="V72" s="3">
-        <v>3400</v>
       </c>
       <c r="W72" s="3">
         <v>3400</v>
@@ -4888,8 +5061,11 @@
       <c r="Y72" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,34 +5283,37 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E76" s="3">
         <v>25700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>6300</v>
       </c>
       <c r="L76" s="3">
         <v>6300</v>
@@ -5137,34 +5322,34 @@
         <v>6300</v>
       </c>
       <c r="N76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="O76" s="3">
         <v>6000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5700</v>
-      </c>
-      <c r="R76" s="3">
-        <v>5500</v>
       </c>
       <c r="S76" s="3">
         <v>5500</v>
       </c>
       <c r="T76" s="3">
+        <v>5500</v>
+      </c>
+      <c r="U76" s="3">
         <v>5600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6000</v>
-      </c>
-      <c r="W76" s="3">
-        <v>5900</v>
       </c>
       <c r="X76" s="3">
         <v>5900</v>
@@ -5172,8 +5357,11 @@
       <c r="Y76" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1400</v>
       </c>
       <c r="F81" s="3">
         <v>-1400</v>
       </c>
       <c r="G81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5426,17 +5624,17 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -5453,13 +5651,13 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -5468,10 +5666,10 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
-      </c>
-      <c r="T83" s="3">
-        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
@@ -5488,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,19 +6160,20 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -5962,7 +6182,7 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5974,13 +6194,13 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5992,11 +6212,11 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
@@ -6010,10 +6230,13 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,29 +6380,32 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3800</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -6187,13 +6416,13 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -6205,11 +6434,11 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -6223,10 +6452,13 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6291,11 +6524,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6545,23 +6790,23 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>15900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>6200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6569,17 +6814,17 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -6587,36 +6832,39 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>-100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>10</v>
@@ -6633,8 +6881,8 @@
       <c r="J101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -6678,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -780,218 +784,227 @@
         <v>2900</v>
       </c>
       <c r="F8" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="G8" s="3">
         <v>2500</v>
       </c>
       <c r="H8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I8" s="3">
         <v>4700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1100</v>
       </c>
       <c r="L10" s="3">
         <v>1100</v>
       </c>
       <c r="M10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N10" s="3">
         <v>1000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>600</v>
-      </c>
-      <c r="W10" s="3">
-        <v>800</v>
       </c>
       <c r="X10" s="3">
         <v>800</v>
       </c>
       <c r="Y10" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z10" s="3">
         <v>700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,31 +1031,32 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
-      </c>
-      <c r="E12" s="3">
-        <v>600</v>
       </c>
       <c r="F12" s="3">
         <v>600</v>
       </c>
       <c r="G12" s="3">
+        <v>600</v>
+      </c>
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>300</v>
       </c>
       <c r="K12" s="3">
         <v>300</v>
@@ -1051,19 +1065,19 @@
         <v>300</v>
       </c>
       <c r="M12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N12" s="3">
         <v>200</v>
       </c>
       <c r="O12" s="3">
+        <v>200</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
@@ -1072,10 +1086,10 @@
         <v>100</v>
       </c>
       <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
         <v>300</v>
-      </c>
-      <c r="U12" s="3">
-        <v>100</v>
       </c>
       <c r="V12" s="3">
         <v>100</v>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,37 +1183,40 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1213,11 +1233,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1225,11 +1245,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1237,11 +1257,14 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2200</v>
       </c>
       <c r="J17" s="3">
         <v>2200</v>
       </c>
       <c r="K17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L17" s="3">
         <v>2400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2100</v>
       </c>
       <c r="M17" s="3">
         <v>2100</v>
       </c>
       <c r="N17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>200</v>
       </c>
       <c r="O18" s="3">
         <v>200</v>
       </c>
       <c r="P18" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-300</v>
       </c>
       <c r="U18" s="3">
         <v>-300</v>
       </c>
       <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
-      </c>
-      <c r="W18" s="3">
-        <v>100</v>
       </c>
       <c r="X18" s="3">
         <v>100</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,35 +1548,36 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>500</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1589,82 +1623,88 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>300</v>
       </c>
       <c r="P21" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
-      </c>
-      <c r="W21" s="3">
-        <v>200</v>
       </c>
       <c r="X21" s="3">
         <v>200</v>
       </c>
       <c r="Y21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1686,8 +1726,8 @@
       <c r="I22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1734,112 +1774,118 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1800</v>
       </c>
       <c r="G23" s="3">
         <v>-1800</v>
       </c>
       <c r="H23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-300</v>
       </c>
       <c r="U23" s="3">
         <v>-300</v>
       </c>
       <c r="V23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
-      </c>
-      <c r="W23" s="3">
-        <v>100</v>
       </c>
       <c r="X23" s="3">
         <v>100</v>
       </c>
       <c r="Y23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1850,31 +1896,31 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V24" s="3">
         <v>-100</v>
       </c>
       <c r="W24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
@@ -1883,10 +1929,13 @@
         <v>0</v>
       </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2199,28 +2260,28 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
+      <c r="M29" s="3">
+        <v>-100</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,35 +2470,38 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-500</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2477,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1400</v>
       </c>
       <c r="G33" s="3">
         <v>-1400</v>
       </c>
       <c r="H33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>100</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1400</v>
       </c>
       <c r="G35" s="3">
         <v>-1400</v>
       </c>
       <c r="H35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>100</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,105 +2920,109 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E41" s="3">
         <v>4300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1400</v>
       </c>
       <c r="P41" s="3">
         <v>1400</v>
       </c>
       <c r="Q41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R41" s="3">
         <v>1500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>700</v>
       </c>
       <c r="T41" s="3">
         <v>700</v>
       </c>
       <c r="U41" s="3">
+        <v>700</v>
+      </c>
+      <c r="V41" s="3">
         <v>900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E42" s="3">
         <v>6900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>7000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>5800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>4000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>300</v>
       </c>
       <c r="K42" s="3">
         <v>300</v>
@@ -2982,182 +3072,191 @@
       <c r="Z42" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1600</v>
       </c>
       <c r="F43" s="3">
         <v>1600</v>
       </c>
       <c r="G43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1700</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>1200</v>
       </c>
       <c r="Z43" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E44" s="3">
         <v>3600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2500</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3000</v>
       </c>
       <c r="L44" s="3">
         <v>3000</v>
       </c>
       <c r="M44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N44" s="3">
         <v>2700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2600</v>
-      </c>
-      <c r="O44" s="3">
-        <v>2700</v>
       </c>
       <c r="P44" s="3">
         <v>2700</v>
       </c>
       <c r="Q44" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="R44" s="3">
         <v>2300</v>
       </c>
       <c r="S44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T44" s="3">
         <v>2700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>600</v>
       </c>
       <c r="F45" s="3">
+        <v>600</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -3178,16 +3277,16 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
@@ -3196,90 +3295,96 @@
         <v>200</v>
       </c>
       <c r="X45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y45" s="3">
         <v>300</v>
       </c>
       <c r="Z45" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E46" s="3">
         <v>16800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>6300</v>
       </c>
       <c r="M46" s="3">
         <v>6300</v>
       </c>
       <c r="N46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="O46" s="3">
         <v>6600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3323,25 +3428,25 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>200</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W47" s="3">
         <v>200</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>10</v>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3361,7 +3469,7 @@
         <v>2000</v>
       </c>
       <c r="E48" s="3">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="F48" s="3">
         <v>1100</v>
@@ -3373,13 +3481,13 @@
         <v>1100</v>
       </c>
       <c r="I48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J48" s="3">
         <v>1200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1200</v>
       </c>
       <c r="L48" s="3">
         <v>1200</v>
@@ -3388,13 +3496,13 @@
         <v>1200</v>
       </c>
       <c r="N48" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="O48" s="3">
         <v>300</v>
       </c>
       <c r="P48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
@@ -3424,42 +3532,45 @@
         <v>200</v>
       </c>
       <c r="Z48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E49" s="3">
         <v>6700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>400</v>
       </c>
       <c r="H49" s="3">
         <v>400</v>
       </c>
       <c r="I49" s="3">
+        <v>400</v>
+      </c>
+      <c r="J49" s="3">
         <v>800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>800</v>
       </c>
       <c r="L49" s="3">
         <v>800</v>
       </c>
       <c r="M49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N49" s="3">
         <v>900</v>
@@ -3471,37 +3582,40 @@
         <v>900</v>
       </c>
       <c r="Q49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="R49" s="3">
         <v>1000</v>
       </c>
       <c r="S49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T49" s="3">
         <v>1100</v>
-      </c>
-      <c r="T49" s="3">
-        <v>1200</v>
       </c>
       <c r="U49" s="3">
         <v>1200</v>
       </c>
       <c r="V49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W49" s="3">
         <v>1300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1400</v>
-      </c>
-      <c r="X49" s="3">
-        <v>1500</v>
       </c>
       <c r="Y49" s="3">
         <v>1500</v>
       </c>
       <c r="Z49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA49" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,37 +3765,40 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E52" s="3">
         <v>3300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>600</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
       </c>
       <c r="L52" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M52" s="3">
         <v>500</v>
@@ -3690,7 +3810,7 @@
         <v>500</v>
       </c>
       <c r="P52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q52" s="3">
         <v>400</v>
@@ -3699,19 +3819,19 @@
         <v>400</v>
       </c>
       <c r="S52" s="3">
+        <v>400</v>
+      </c>
+      <c r="T52" s="3">
         <v>600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>500</v>
-      </c>
-      <c r="U52" s="3">
-        <v>600</v>
       </c>
       <c r="V52" s="3">
         <v>600</v>
       </c>
       <c r="W52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="X52" s="3">
         <v>300</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,34 +3919,37 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E54" s="3">
         <v>28900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14800</v>
-      </c>
-      <c r="K54" s="3">
-        <v>8900</v>
       </c>
       <c r="L54" s="3">
         <v>8900</v>
@@ -3832,46 +3958,49 @@
         <v>8900</v>
       </c>
       <c r="N54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="O54" s="3">
         <v>8300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7600</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>7300</v>
       </c>
       <c r="R54" s="3">
         <v>7300</v>
       </c>
       <c r="S54" s="3">
+        <v>7300</v>
+      </c>
+      <c r="T54" s="3">
         <v>7400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6800</v>
-      </c>
-      <c r="W54" s="3">
-        <v>7200</v>
       </c>
       <c r="X54" s="3">
         <v>7200</v>
       </c>
       <c r="Y54" s="3">
+        <v>7200</v>
+      </c>
+      <c r="Z54" s="3">
         <v>7400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,34 +4056,35 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
       </c>
       <c r="H57" s="3">
+        <v>500</v>
+      </c>
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
@@ -3962,16 +4093,16 @@
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
@@ -3986,10 +4117,10 @@
         <v>400</v>
       </c>
       <c r="V57" s="3">
+        <v>400</v>
+      </c>
+      <c r="W57" s="3">
         <v>100</v>
-      </c>
-      <c r="W57" s="3">
-        <v>300</v>
       </c>
       <c r="X57" s="3">
         <v>300</v>
@@ -4000,32 +4131,35 @@
       <c r="Z57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -4036,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4066,16 +4200,19 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>300</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4083,40 +4220,40 @@
         <v>900</v>
       </c>
       <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1300</v>
       </c>
       <c r="H59" s="3">
         <v>1300</v>
       </c>
       <c r="I59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>800</v>
       </c>
       <c r="Q59" s="3">
         <v>800</v>
@@ -4125,16 +4262,16 @@
         <v>800</v>
       </c>
       <c r="S59" s="3">
+        <v>800</v>
+      </c>
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
-      </c>
-      <c r="V59" s="3">
-        <v>700</v>
       </c>
       <c r="W59" s="3">
         <v>700</v>
@@ -4143,13 +4280,16 @@
         <v>700</v>
       </c>
       <c r="Y59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4160,70 +4300,73 @@
         <v>2000</v>
       </c>
       <c r="F60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2100</v>
       </c>
       <c r="I60" s="3">
         <v>2100</v>
       </c>
       <c r="J60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4305,43 +4451,43 @@
         <v>1400</v>
       </c>
       <c r="E62" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="F62" s="3">
         <v>500</v>
       </c>
       <c r="G62" s="3">
+        <v>500</v>
+      </c>
+      <c r="H62" s="3">
         <v>1200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1000</v>
       </c>
       <c r="I62" s="3">
         <v>1000</v>
       </c>
       <c r="J62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K62" s="3">
         <v>900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1200</v>
       </c>
       <c r="L62" s="3">
         <v>1200</v>
       </c>
       <c r="M62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>300</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>400</v>
       </c>
       <c r="R62" s="3">
         <v>400</v>
@@ -4350,7 +4496,7 @@
         <v>400</v>
       </c>
       <c r="T62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="U62" s="3">
         <v>200</v>
@@ -4362,16 +4508,19 @@
         <v>200</v>
       </c>
       <c r="X62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y62" s="3">
         <v>100</v>
       </c>
       <c r="Z62" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4601,13 +4759,13 @@
         <v>3400</v>
       </c>
       <c r="E66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3100</v>
       </c>
       <c r="H66" s="3">
         <v>3100</v>
@@ -4619,55 +4777,58 @@
         <v>3100</v>
       </c>
       <c r="K66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L66" s="3">
         <v>2900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1400</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>1600</v>
       </c>
       <c r="Z66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,37 +5161,40 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>3700</v>
       </c>
       <c r="M72" s="3">
         <v>3700</v>
@@ -5029,31 +5203,31 @@
         <v>3700</v>
       </c>
       <c r="O72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P72" s="3">
         <v>3400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3300</v>
-      </c>
-      <c r="W72" s="3">
-        <v>3400</v>
       </c>
       <c r="X72" s="3">
         <v>3400</v>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,37 +5469,40 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E76" s="3">
         <v>25500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>25700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6000</v>
-      </c>
-      <c r="L76" s="3">
-        <v>6300</v>
       </c>
       <c r="M76" s="3">
         <v>6300</v>
@@ -5325,34 +5511,34 @@
         <v>6300</v>
       </c>
       <c r="O76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="P76" s="3">
         <v>6000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5700</v>
-      </c>
-      <c r="S76" s="3">
-        <v>5500</v>
       </c>
       <c r="T76" s="3">
         <v>5500</v>
       </c>
       <c r="U76" s="3">
+        <v>5500</v>
+      </c>
+      <c r="V76" s="3">
         <v>5600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6000</v>
-      </c>
-      <c r="X76" s="3">
-        <v>5900</v>
       </c>
       <c r="Y76" s="3">
         <v>5900</v>
@@ -5360,8 +5546,11 @@
       <c r="Z76" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1400</v>
       </c>
       <c r="G81" s="3">
         <v>-1400</v>
       </c>
       <c r="H81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>100</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,29 +5813,30 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
       </c>
       <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -5654,13 +5853,13 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -5669,10 +5868,10 @@
         <v>100</v>
       </c>
       <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
         <v>200</v>
-      </c>
-      <c r="U83" s="3">
-        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,22 +6381,23 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -6185,7 +6406,7 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6197,13 +6418,13 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6215,11 +6436,11 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
@@ -6233,10 +6454,13 @@
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,32 +6610,35 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3800</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -6419,13 +6649,13 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -6437,11 +6667,11 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -6455,10 +6685,13 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6527,11 +6761,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,35 +7024,38 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>15900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>6200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6817,17 +7063,17 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6835,39 +7081,42 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>-100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>10</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>10</v>
@@ -6884,8 +7133,8 @@
       <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>SCND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,124 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E8" s="3">
         <v>2900</v>
@@ -787,224 +791,233 @@
         <v>2900</v>
       </c>
       <c r="G8" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="H8" s="3">
         <v>2500</v>
       </c>
       <c r="I8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J8" s="3">
         <v>4700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1100</v>
       </c>
       <c r="M10" s="3">
         <v>1100</v>
       </c>
       <c r="N10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O10" s="3">
         <v>1000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>600</v>
-      </c>
-      <c r="X10" s="3">
-        <v>800</v>
       </c>
       <c r="Y10" s="3">
         <v>800</v>
       </c>
       <c r="Z10" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA10" s="3">
         <v>700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,34 +1045,35 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>600</v>
       </c>
       <c r="G12" s="3">
         <v>600</v>
       </c>
       <c r="H12" s="3">
+        <v>600</v>
+      </c>
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>300</v>
       </c>
       <c r="L12" s="3">
         <v>300</v>
@@ -1068,19 +1082,19 @@
         <v>300</v>
       </c>
       <c r="N12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O12" s="3">
         <v>200</v>
       </c>
       <c r="P12" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
-      </c>
-      <c r="R12" s="3">
-        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
@@ -1089,10 +1103,10 @@
         <v>100</v>
       </c>
       <c r="U12" s="3">
+        <v>100</v>
+      </c>
+      <c r="V12" s="3">
         <v>300</v>
-      </c>
-      <c r="V12" s="3">
-        <v>100</v>
       </c>
       <c r="W12" s="3">
         <v>100</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,40 +1203,43 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1236,11 +1256,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1248,11 +1268,11 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>10</v>
@@ -1260,11 +1280,14 @@
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E17" s="3">
         <v>4600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2200</v>
       </c>
       <c r="K17" s="3">
         <v>2200</v>
       </c>
       <c r="L17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M17" s="3">
         <v>2400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2100</v>
       </c>
       <c r="N17" s="3">
         <v>2100</v>
       </c>
       <c r="O17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>200</v>
       </c>
       <c r="P18" s="3">
         <v>200</v>
       </c>
       <c r="Q18" s="3">
+        <v>200</v>
+      </c>
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-300</v>
       </c>
       <c r="V18" s="3">
         <v>-300</v>
       </c>
       <c r="W18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X18" s="3">
         <v>-200</v>
-      </c>
-      <c r="X18" s="3">
-        <v>100</v>
       </c>
       <c r="Y18" s="3">
         <v>100</v>
       </c>
       <c r="Z18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,38 +1582,39 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1626,85 +1660,91 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>300</v>
       </c>
       <c r="Q21" s="3">
+        <v>300</v>
+      </c>
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>500</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
-      </c>
-      <c r="X21" s="3">
-        <v>200</v>
       </c>
       <c r="Y21" s="3">
         <v>200</v>
       </c>
       <c r="Z21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1729,8 +1769,8 @@
       <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1777,88 +1817,94 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-      <c r="AA22" s="3" t="s">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1800</v>
       </c>
       <c r="H23" s="3">
         <v>-1800</v>
       </c>
       <c r="I23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-300</v>
       </c>
       <c r="V23" s="3">
         <v>-300</v>
       </c>
       <c r="W23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X23" s="3">
         <v>-200</v>
-      </c>
-      <c r="X23" s="3">
-        <v>100</v>
       </c>
       <c r="Y23" s="3">
         <v>100</v>
       </c>
       <c r="Z23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1866,29 +1912,29 @@
         <v>-300</v>
       </c>
       <c r="E24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1899,31 +1945,31 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W24" s="3">
         <v>-100</v>
       </c>
       <c r="X24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
@@ -1932,10 +1978,13 @@
         <v>0</v>
       </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>100</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
         <v>0</v>
       </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>100</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
         <v>0</v>
       </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2263,28 +2324,28 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
+      <c r="N29" s="3">
+        <v>-100</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,38 +2540,41 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1400</v>
       </c>
       <c r="H33" s="3">
         <v>-1400</v>
       </c>
       <c r="I33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>100</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
         <v>0</v>
       </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1400</v>
       </c>
       <c r="H35" s="3">
         <v>-1400</v>
       </c>
       <c r="I35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>100</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
         <v>0</v>
       </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,111 +3007,115 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1600</v>
-      </c>
-      <c r="P41" s="3">
-        <v>1400</v>
       </c>
       <c r="Q41" s="3">
         <v>1400</v>
       </c>
       <c r="R41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S41" s="3">
         <v>1500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1100</v>
-      </c>
-      <c r="T41" s="3">
-        <v>700</v>
       </c>
       <c r="U41" s="3">
         <v>700</v>
       </c>
       <c r="V41" s="3">
+        <v>700</v>
+      </c>
+      <c r="W41" s="3">
         <v>900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E42" s="3">
         <v>7800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>7000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>5300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>5800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>4000</v>
-      </c>
-      <c r="K42" s="3">
-        <v>300</v>
       </c>
       <c r="L42" s="3">
         <v>300</v>
@@ -3075,191 +3165,200 @@
       <c r="AA42" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1600</v>
       </c>
       <c r="G43" s="3">
         <v>1600</v>
       </c>
       <c r="H43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I43" s="3">
         <v>2200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1700</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>1200</v>
       </c>
       <c r="AA43" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E44" s="3">
         <v>4400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2500</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3000</v>
       </c>
       <c r="M44" s="3">
         <v>3000</v>
       </c>
       <c r="N44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O44" s="3">
         <v>2700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2600</v>
-      </c>
-      <c r="P44" s="3">
-        <v>2700</v>
       </c>
       <c r="Q44" s="3">
         <v>2700</v>
       </c>
       <c r="R44" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="S44" s="3">
         <v>2300</v>
       </c>
       <c r="T44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U44" s="3">
         <v>2700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>600</v>
       </c>
       <c r="F45" s="3">
         <v>600</v>
       </c>
       <c r="G45" s="3">
+        <v>600</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -3280,16 +3379,16 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>200</v>
@@ -3298,93 +3397,99 @@
         <v>200</v>
       </c>
       <c r="Y45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z45" s="3">
         <v>300</v>
       </c>
       <c r="AA45" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E46" s="3">
         <v>18400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>6300</v>
       </c>
       <c r="N46" s="3">
         <v>6300</v>
       </c>
       <c r="O46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="P46" s="3">
         <v>6600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3431,25 +3536,25 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>200</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X47" s="3">
         <v>200</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>10</v>
@@ -3460,19 +3565,22 @@
       <c r="AA47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="E48" s="3">
         <v>2000</v>
       </c>
       <c r="F48" s="3">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="G48" s="3">
         <v>1100</v>
@@ -3484,13 +3592,13 @@
         <v>1100</v>
       </c>
       <c r="J48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1200</v>
       </c>
       <c r="M48" s="3">
         <v>1200</v>
@@ -3499,13 +3607,13 @@
         <v>1200</v>
       </c>
       <c r="O48" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="P48" s="3">
         <v>300</v>
       </c>
       <c r="Q48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
@@ -3535,45 +3643,48 @@
         <v>200</v>
       </c>
       <c r="AA48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E49" s="3">
         <v>6600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>400</v>
       </c>
       <c r="I49" s="3">
         <v>400</v>
       </c>
       <c r="J49" s="3">
+        <v>400</v>
+      </c>
+      <c r="K49" s="3">
         <v>800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>400</v>
-      </c>
-      <c r="L49" s="3">
-        <v>800</v>
       </c>
       <c r="M49" s="3">
         <v>800</v>
       </c>
       <c r="N49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="O49" s="3">
         <v>900</v>
@@ -3585,37 +3696,40 @@
         <v>900</v>
       </c>
       <c r="R49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="S49" s="3">
         <v>1000</v>
       </c>
       <c r="T49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U49" s="3">
         <v>1100</v>
-      </c>
-      <c r="U49" s="3">
-        <v>1200</v>
       </c>
       <c r="V49" s="3">
         <v>1200</v>
       </c>
       <c r="W49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X49" s="3">
         <v>1300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1400</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>1500</v>
       </c>
       <c r="Z49" s="3">
         <v>1500</v>
       </c>
       <c r="AA49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB49" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,40 +3885,43 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E52" s="3">
         <v>3500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>600</v>
       </c>
       <c r="L52" s="3">
         <v>600</v>
       </c>
       <c r="M52" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N52" s="3">
         <v>500</v>
@@ -3813,7 +3933,7 @@
         <v>500</v>
       </c>
       <c r="Q52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R52" s="3">
         <v>400</v>
@@ -3822,19 +3942,19 @@
         <v>400</v>
       </c>
       <c r="T52" s="3">
+        <v>400</v>
+      </c>
+      <c r="U52" s="3">
         <v>600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>500</v>
-      </c>
-      <c r="V52" s="3">
-        <v>600</v>
       </c>
       <c r="W52" s="3">
         <v>600</v>
       </c>
       <c r="X52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Y52" s="3">
         <v>300</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,37 +4045,40 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E54" s="3">
         <v>30500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>29000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>8900</v>
       </c>
       <c r="M54" s="3">
         <v>8900</v>
@@ -3961,46 +4087,49 @@
         <v>8900</v>
       </c>
       <c r="O54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="P54" s="3">
         <v>8300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7600</v>
-      </c>
-      <c r="R54" s="3">
-        <v>7300</v>
       </c>
       <c r="S54" s="3">
         <v>7300</v>
       </c>
       <c r="T54" s="3">
+        <v>7300</v>
+      </c>
+      <c r="U54" s="3">
         <v>7400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6800</v>
-      </c>
-      <c r="X54" s="3">
-        <v>7200</v>
       </c>
       <c r="Y54" s="3">
         <v>7200</v>
       </c>
       <c r="Z54" s="3">
+        <v>7200</v>
+      </c>
+      <c r="AA54" s="3">
         <v>7400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4066,28 +4197,28 @@
         <v>1100</v>
       </c>
       <c r="E57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
       </c>
       <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
@@ -4096,16 +4227,16 @@
         <v>500</v>
       </c>
       <c r="O57" s="3">
+        <v>500</v>
+      </c>
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
-      </c>
-      <c r="R57" s="3">
-        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
@@ -4120,10 +4251,10 @@
         <v>400</v>
       </c>
       <c r="W57" s="3">
+        <v>400</v>
+      </c>
+      <c r="X57" s="3">
         <v>100</v>
-      </c>
-      <c r="X57" s="3">
-        <v>300</v>
       </c>
       <c r="Y57" s="3">
         <v>300</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4143,26 +4277,26 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -4173,13 +4307,13 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4203,60 +4337,63 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>300</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E59" s="3">
         <v>900</v>
       </c>
       <c r="F59" s="3">
+        <v>900</v>
+      </c>
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1300</v>
       </c>
       <c r="I59" s="3">
         <v>1300</v>
       </c>
       <c r="J59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>800</v>
       </c>
       <c r="R59" s="3">
         <v>800</v>
@@ -4265,16 +4402,16 @@
         <v>800</v>
       </c>
       <c r="T59" s="3">
+        <v>800</v>
+      </c>
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>600</v>
-      </c>
-      <c r="W59" s="3">
-        <v>700</v>
       </c>
       <c r="X59" s="3">
         <v>700</v>
@@ -4283,18 +4420,21 @@
         <v>700</v>
       </c>
       <c r="Z59" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA59" s="3">
         <v>1100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="E60" s="3">
         <v>2000</v>
@@ -4303,70 +4443,73 @@
         <v>2000</v>
       </c>
       <c r="G60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2100</v>
       </c>
       <c r="J60" s="3">
         <v>2100</v>
       </c>
       <c r="K60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,55 +4585,58 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="3">
         <v>1400</v>
       </c>
       <c r="F62" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="G62" s="3">
         <v>500</v>
       </c>
       <c r="H62" s="3">
+        <v>500</v>
+      </c>
+      <c r="I62" s="3">
         <v>1200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1000</v>
       </c>
       <c r="J62" s="3">
         <v>1000</v>
       </c>
       <c r="K62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L62" s="3">
         <v>900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1200</v>
       </c>
       <c r="M62" s="3">
         <v>1200</v>
       </c>
       <c r="N62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O62" s="3">
         <v>1100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>300</v>
-      </c>
-      <c r="R62" s="3">
-        <v>400</v>
       </c>
       <c r="S62" s="3">
         <v>400</v>
@@ -4499,7 +4645,7 @@
         <v>400</v>
       </c>
       <c r="U62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="V62" s="3">
         <v>200</v>
@@ -4511,16 +4657,19 @@
         <v>200</v>
       </c>
       <c r="Y62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z62" s="3">
         <v>100</v>
       </c>
       <c r="AA62" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,25 +4905,28 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E66" s="3">
         <v>3400</v>
       </c>
       <c r="F66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3100</v>
       </c>
       <c r="I66" s="3">
         <v>3100</v>
@@ -4780,55 +4938,58 @@
         <v>3100</v>
       </c>
       <c r="L66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M66" s="3">
         <v>2900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1400</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>1600</v>
       </c>
       <c r="AA66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,40 +5335,43 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3400</v>
-      </c>
-      <c r="M72" s="3">
-        <v>3700</v>
       </c>
       <c r="N72" s="3">
         <v>3700</v>
@@ -5206,31 +5380,31 @@
         <v>3700</v>
       </c>
       <c r="P72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q72" s="3">
         <v>3400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3300</v>
-      </c>
-      <c r="X72" s="3">
-        <v>3400</v>
       </c>
       <c r="Y72" s="3">
         <v>3400</v>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,40 +5655,43 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E76" s="3">
         <v>27100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>25500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>6300</v>
       </c>
       <c r="N76" s="3">
         <v>6300</v>
@@ -5514,34 +5700,34 @@
         <v>6300</v>
       </c>
       <c r="P76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="Q76" s="3">
         <v>6000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5700</v>
-      </c>
-      <c r="T76" s="3">
-        <v>5500</v>
       </c>
       <c r="U76" s="3">
         <v>5500</v>
       </c>
       <c r="V76" s="3">
+        <v>5500</v>
+      </c>
+      <c r="W76" s="3">
         <v>5600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6000</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>5900</v>
       </c>
       <c r="Z76" s="3">
         <v>5900</v>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1400</v>
       </c>
       <c r="H81" s="3">
         <v>-1400</v>
       </c>
       <c r="I81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>100</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
         <v>0</v>
       </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,32 +6012,33 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -5856,13 +6055,13 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>200</v>
-      </c>
-      <c r="R83" s="3">
-        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
@@ -5871,10 +6070,10 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
-      </c>
-      <c r="V83" s="3">
-        <v>100</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>400</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,25 +6602,26 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -6409,7 +6630,7 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -6421,13 +6642,13 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -6439,11 +6660,11 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
@@ -6457,10 +6678,13 @@
         <v>0</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,35 +6840,38 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3800</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -6652,13 +6882,13 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -6670,11 +6900,11 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
@@ -6688,10 +6918,13 @@
         <v>0</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6764,11 +6998,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,38 +7270,41 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>15900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>6200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -7066,17 +7312,17 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -7084,42 +7330,45 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>-100</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>10</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>10</v>
@@ -7136,8 +7385,8 @@
       <c r="L101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>SCND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,131 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2800</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2900</v>
       </c>
       <c r="F8" s="3">
         <v>2900</v>
@@ -794,230 +798,239 @@
         <v>2900</v>
       </c>
       <c r="H8" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="I8" s="3">
         <v>2500</v>
       </c>
       <c r="J8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K8" s="3">
         <v>4700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1100</v>
       </c>
       <c r="N10" s="3">
         <v>1100</v>
       </c>
       <c r="O10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P10" s="3">
         <v>1000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>600</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>800</v>
       </c>
       <c r="Z10" s="3">
         <v>800</v>
       </c>
       <c r="AA10" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB10" s="3">
         <v>700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,37 +1059,38 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>600</v>
       </c>
       <c r="H12" s="3">
         <v>600</v>
       </c>
       <c r="I12" s="3">
+        <v>600</v>
+      </c>
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>300</v>
       </c>
       <c r="M12" s="3">
         <v>300</v>
@@ -1085,19 +1099,19 @@
         <v>300</v>
       </c>
       <c r="O12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
       </c>
       <c r="Q12" s="3">
+        <v>200</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>200</v>
-      </c>
-      <c r="S12" s="3">
-        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
@@ -1106,10 +1120,10 @@
         <v>100</v>
       </c>
       <c r="V12" s="3">
+        <v>100</v>
+      </c>
+      <c r="W12" s="3">
         <v>300</v>
-      </c>
-      <c r="W12" s="3">
-        <v>100</v>
       </c>
       <c r="X12" s="3">
         <v>100</v>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,43 +1223,46 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1259,11 +1279,11 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1271,11 +1291,11 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>10</v>
@@ -1283,11 +1303,14 @@
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E17" s="3">
         <v>4900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2200</v>
       </c>
       <c r="L17" s="3">
         <v>2200</v>
       </c>
       <c r="M17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N17" s="3">
         <v>2400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2100</v>
       </c>
       <c r="O17" s="3">
         <v>2100</v>
       </c>
       <c r="P17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>200</v>
       </c>
       <c r="Q18" s="3">
         <v>200</v>
       </c>
       <c r="R18" s="3">
+        <v>200</v>
+      </c>
+      <c r="S18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-300</v>
       </c>
       <c r="W18" s="3">
         <v>-300</v>
       </c>
       <c r="X18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>100</v>
       </c>
       <c r="Z18" s="3">
         <v>100</v>
       </c>
       <c r="AA18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,41 +1616,42 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1663,117 +1697,123 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>300</v>
       </c>
       <c r="R21" s="3">
+        <v>300</v>
+      </c>
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>200</v>
       </c>
       <c r="Z21" s="3">
         <v>200</v>
       </c>
       <c r="AA21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1820,124 +1860,130 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-      <c r="AB22" s="3" t="s">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1800</v>
       </c>
       <c r="I23" s="3">
         <v>-1800</v>
       </c>
       <c r="J23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-300</v>
       </c>
       <c r="W23" s="3">
         <v>-300</v>
       </c>
       <c r="X23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>100</v>
       </c>
       <c r="Z23" s="3">
         <v>100</v>
       </c>
       <c r="AA23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E24" s="3">
         <v>-300</v>
       </c>
       <c r="F24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1948,31 +1994,31 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
       <c r="W24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X24" s="3">
         <v>-100</v>
       </c>
       <c r="Y24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
@@ -1981,10 +2027,13 @@
         <v>0</v>
       </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>100</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
       <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>100</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
         <v>0</v>
       </c>
       <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2327,28 +2388,28 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
+      <c r="O29" s="3">
+        <v>-100</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,41 +2610,44 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2623,88 +2693,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1400</v>
       </c>
       <c r="I33" s="3">
         <v>-1400</v>
       </c>
       <c r="J33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-300</v>
       </c>
       <c r="M33" s="3">
         <v>-300</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>100</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
         <v>0</v>
       </c>
       <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1400</v>
       </c>
       <c r="I35" s="3">
         <v>-1400</v>
       </c>
       <c r="J35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-300</v>
       </c>
       <c r="M35" s="3">
         <v>-300</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>100</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
         <v>0</v>
       </c>
       <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,117 +3094,121 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>1400</v>
       </c>
       <c r="R41" s="3">
         <v>1400</v>
       </c>
       <c r="S41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T41" s="3">
         <v>1500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1100</v>
-      </c>
-      <c r="U41" s="3">
-        <v>700</v>
       </c>
       <c r="V41" s="3">
         <v>700</v>
       </c>
       <c r="W41" s="3">
+        <v>700</v>
+      </c>
+      <c r="X41" s="3">
         <v>900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E42" s="3">
         <v>6400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>7800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>7000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>5300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>5800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4000</v>
-      </c>
-      <c r="L42" s="3">
-        <v>300</v>
       </c>
       <c r="M42" s="3">
         <v>300</v>
@@ -3168,168 +3258,177 @@
       <c r="AB42" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1600</v>
       </c>
       <c r="H43" s="3">
         <v>1600</v>
       </c>
       <c r="I43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J43" s="3">
         <v>2200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1700</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>1200</v>
       </c>
       <c r="AB43" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E44" s="3">
         <v>4700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>3000</v>
       </c>
       <c r="N44" s="3">
         <v>3000</v>
       </c>
       <c r="O44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P44" s="3">
         <v>2700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>2700</v>
       </c>
       <c r="R44" s="3">
         <v>2700</v>
       </c>
       <c r="S44" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="T44" s="3">
         <v>2300</v>
       </c>
       <c r="U44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V44" s="3">
         <v>2700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3337,31 +3436,31 @@
         <v>500</v>
       </c>
       <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>600</v>
       </c>
       <c r="G45" s="3">
         <v>600</v>
       </c>
       <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -3382,16 +3481,16 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>200</v>
@@ -3400,96 +3499,102 @@
         <v>200</v>
       </c>
       <c r="Z45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA45" s="3">
         <v>300</v>
       </c>
       <c r="AB45" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E46" s="3">
         <v>16300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>6300</v>
       </c>
       <c r="O46" s="3">
         <v>6300</v>
       </c>
       <c r="P46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>6600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3539,25 +3644,25 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>200</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y47" s="3">
         <v>200</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>10</v>
@@ -3568,8 +3673,11 @@
       <c r="AB47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3577,13 +3685,13 @@
         <v>2500</v>
       </c>
       <c r="E48" s="3">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="F48" s="3">
         <v>2000</v>
       </c>
       <c r="G48" s="3">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="H48" s="3">
         <v>1100</v>
@@ -3595,13 +3703,13 @@
         <v>1100</v>
       </c>
       <c r="K48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L48" s="3">
         <v>1200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1100</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1200</v>
       </c>
       <c r="N48" s="3">
         <v>1200</v>
@@ -3610,13 +3718,13 @@
         <v>1200</v>
       </c>
       <c r="P48" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="Q48" s="3">
         <v>300</v>
       </c>
       <c r="R48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
@@ -3646,48 +3754,51 @@
         <v>200</v>
       </c>
       <c r="AB48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E49" s="3">
         <v>6500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>400</v>
       </c>
       <c r="J49" s="3">
         <v>400</v>
       </c>
       <c r="K49" s="3">
+        <v>400</v>
+      </c>
+      <c r="L49" s="3">
         <v>800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>400</v>
-      </c>
-      <c r="M49" s="3">
-        <v>800</v>
       </c>
       <c r="N49" s="3">
         <v>800</v>
       </c>
       <c r="O49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="P49" s="3">
         <v>900</v>
@@ -3699,37 +3810,40 @@
         <v>900</v>
       </c>
       <c r="S49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T49" s="3">
         <v>1000</v>
       </c>
       <c r="U49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V49" s="3">
         <v>1100</v>
-      </c>
-      <c r="V49" s="3">
-        <v>1200</v>
       </c>
       <c r="W49" s="3">
         <v>1200</v>
       </c>
       <c r="X49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y49" s="3">
         <v>1300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1400</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>1500</v>
       </c>
       <c r="AA49" s="3">
         <v>1500</v>
       </c>
       <c r="AB49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AC49" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,43 +4005,46 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E52" s="3">
         <v>3800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>600</v>
       </c>
       <c r="M52" s="3">
         <v>600</v>
       </c>
       <c r="N52" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O52" s="3">
         <v>500</v>
@@ -3936,7 +4056,7 @@
         <v>500</v>
       </c>
       <c r="R52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S52" s="3">
         <v>400</v>
@@ -3945,19 +4065,19 @@
         <v>400</v>
       </c>
       <c r="U52" s="3">
+        <v>400</v>
+      </c>
+      <c r="V52" s="3">
         <v>600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>500</v>
-      </c>
-      <c r="W52" s="3">
-        <v>600</v>
       </c>
       <c r="X52" s="3">
         <v>600</v>
       </c>
       <c r="Y52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Z52" s="3">
         <v>300</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,40 +4171,43 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E54" s="3">
         <v>29000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>29000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>8900</v>
       </c>
       <c r="N54" s="3">
         <v>8900</v>
@@ -4090,46 +4216,49 @@
         <v>8900</v>
       </c>
       <c r="P54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="Q54" s="3">
         <v>8300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7600</v>
-      </c>
-      <c r="S54" s="3">
-        <v>7300</v>
       </c>
       <c r="T54" s="3">
         <v>7300</v>
       </c>
       <c r="U54" s="3">
+        <v>7300</v>
+      </c>
+      <c r="V54" s="3">
         <v>7400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6800</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>7200</v>
       </c>
       <c r="Z54" s="3">
         <v>7200</v>
       </c>
       <c r="AA54" s="3">
+        <v>7200</v>
+      </c>
+      <c r="AB54" s="3">
         <v>7400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,40 +4318,41 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>1100</v>
       </c>
       <c r="F57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
@@ -4230,16 +4361,16 @@
         <v>500</v>
       </c>
       <c r="P57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
-      </c>
-      <c r="S57" s="3">
-        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
@@ -4254,10 +4385,10 @@
         <v>400</v>
       </c>
       <c r="X57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y57" s="3">
         <v>100</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>300</v>
       </c>
       <c r="Z57" s="3">
         <v>300</v>
@@ -4268,38 +4399,41 @@
       <c r="AB57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -4310,13 +4444,13 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4340,63 +4474,66 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>300</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
-      </c>
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>900</v>
       </c>
       <c r="F59" s="3">
         <v>900</v>
       </c>
       <c r="G59" s="3">
+        <v>900</v>
+      </c>
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1300</v>
       </c>
       <c r="J59" s="3">
         <v>1300</v>
       </c>
       <c r="K59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
-      </c>
-      <c r="R59" s="3">
-        <v>800</v>
       </c>
       <c r="S59" s="3">
         <v>800</v>
@@ -4405,16 +4542,16 @@
         <v>800</v>
       </c>
       <c r="U59" s="3">
+        <v>800</v>
+      </c>
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>600</v>
-      </c>
-      <c r="X59" s="3">
-        <v>700</v>
       </c>
       <c r="Y59" s="3">
         <v>700</v>
@@ -4423,21 +4560,24 @@
         <v>700</v>
       </c>
       <c r="AA59" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB59" s="3">
         <v>1100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2000</v>
       </c>
       <c r="F60" s="3">
         <v>2000</v>
@@ -4446,70 +4586,73 @@
         <v>2000</v>
       </c>
       <c r="H60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2100</v>
       </c>
       <c r="K60" s="3">
         <v>2100</v>
       </c>
       <c r="L60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4597,49 +4743,49 @@
         <v>1200</v>
       </c>
       <c r="E62" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="F62" s="3">
         <v>1400</v>
       </c>
       <c r="G62" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
       </c>
       <c r="I62" s="3">
+        <v>500</v>
+      </c>
+      <c r="J62" s="3">
         <v>1200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1000</v>
       </c>
       <c r="K62" s="3">
         <v>1000</v>
       </c>
       <c r="L62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M62" s="3">
         <v>900</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1200</v>
       </c>
       <c r="N62" s="3">
         <v>1200</v>
       </c>
       <c r="O62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P62" s="3">
         <v>1100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>300</v>
-      </c>
-      <c r="S62" s="3">
-        <v>400</v>
       </c>
       <c r="T62" s="3">
         <v>400</v>
@@ -4648,7 +4794,7 @@
         <v>400</v>
       </c>
       <c r="V62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="W62" s="3">
         <v>200</v>
@@ -4660,16 +4806,19 @@
         <v>200</v>
       </c>
       <c r="Z62" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA62" s="3">
         <v>100</v>
       </c>
       <c r="AB62" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,28 +5063,31 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3400</v>
       </c>
       <c r="F66" s="3">
         <v>3400</v>
       </c>
       <c r="G66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3100</v>
       </c>
       <c r="J66" s="3">
         <v>3100</v>
@@ -4941,55 +5099,58 @@
         <v>3100</v>
       </c>
       <c r="M66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N66" s="3">
         <v>2900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1400</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>1600</v>
       </c>
       <c r="AB66" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,43 +5509,46 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>3700</v>
       </c>
       <c r="O72" s="3">
         <v>3700</v>
@@ -5383,31 +5557,31 @@
         <v>3700</v>
       </c>
       <c r="Q72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R72" s="3">
         <v>3400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3300</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>3400</v>
       </c>
       <c r="Z72" s="3">
         <v>3400</v>
@@ -5418,8 +5592,11 @@
       <c r="AB72" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,43 +5841,46 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E76" s="3">
         <v>25600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>27100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>26200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>6300</v>
       </c>
       <c r="O76" s="3">
         <v>6300</v>
@@ -5703,34 +5889,34 @@
         <v>6300</v>
       </c>
       <c r="Q76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="R76" s="3">
         <v>6000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5700</v>
-      </c>
-      <c r="U76" s="3">
-        <v>5500</v>
       </c>
       <c r="V76" s="3">
         <v>5500</v>
       </c>
       <c r="W76" s="3">
+        <v>5500</v>
+      </c>
+      <c r="X76" s="3">
         <v>5600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6000</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>5900</v>
       </c>
       <c r="AA76" s="3">
         <v>5900</v>
@@ -5738,8 +5924,11 @@
       <c r="AB76" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1400</v>
       </c>
       <c r="I81" s="3">
         <v>-1400</v>
       </c>
       <c r="J81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-300</v>
       </c>
       <c r="M81" s="3">
         <v>-300</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>100</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
         <v>0</v>
       </c>
       <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,35 +6211,36 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -6058,13 +6257,13 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
@@ -6073,10 +6272,10 @@
         <v>100</v>
       </c>
       <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
         <v>200</v>
-      </c>
-      <c r="W83" s="3">
-        <v>100</v>
       </c>
       <c r="X83" s="3">
         <v>100</v>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
-        <v>-1000</v>
-      </c>
       <c r="G89" s="3">
-        <v>-1100</v>
+        <v>-1300</v>
       </c>
       <c r="H89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>400</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,28 +6823,29 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -6633,7 +6854,7 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -6645,13 +6866,13 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6663,11 +6884,11 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
@@ -6681,10 +6902,13 @@
         <v>0</v>
       </c>
       <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,38 +7070,41 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>900</v>
+      </c>
+      <c r="E94" s="3">
         <v>800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3800</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -6885,13 +7115,13 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -6903,11 +7133,11 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
@@ -6921,10 +7151,13 @@
         <v>0</v>
       </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7001,11 +7235,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,41 +7516,44 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>15900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>6200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -7315,17 +7561,17 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -7333,28 +7579,31 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>-100</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7362,16 +7611,16 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>10</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>10</v>
@@ -7388,8 +7637,8 @@
       <c r="M101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -7433,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>SCND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,214 +665,227 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2900</v>
       </c>
       <c r="H8" s="3">
         <v>2900</v>
       </c>
       <c r="I8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K8" s="3">
         <v>2500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2000</v>
-      </c>
-      <c r="U8" s="3">
-        <v>3200</v>
-      </c>
-      <c r="V8" s="3">
-        <v>2100</v>
       </c>
       <c r="W8" s="3">
         <v>3200</v>
       </c>
       <c r="X8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Z8" s="3">
         <v>1300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>1600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="E9" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F9" s="3">
         <v>1300</v>
@@ -884,153 +897,165 @@
         <v>1300</v>
       </c>
       <c r="I9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>900</v>
       </c>
       <c r="N9" s="3">
         <v>1000</v>
       </c>
       <c r="O9" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="P9" s="3">
         <v>1000</v>
       </c>
       <c r="Q9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S9" s="3">
         <v>1600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1100</v>
-      </c>
-      <c r="U9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="V9" s="3">
-        <v>1300</v>
       </c>
       <c r="W9" s="3">
         <v>2000</v>
       </c>
       <c r="X9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z9" s="3">
         <v>800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1400</v>
       </c>
       <c r="H10" s="3">
         <v>1600</v>
       </c>
       <c r="I10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>900</v>
-      </c>
-      <c r="U10" s="3">
-        <v>1200</v>
-      </c>
-      <c r="V10" s="3">
-        <v>800</v>
       </c>
       <c r="W10" s="3">
         <v>1200</v>
       </c>
       <c r="X10" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z10" s="3">
         <v>500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,55 +1085,57 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E12" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F12" s="3">
         <v>600</v>
       </c>
       <c r="G12" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="H12" s="3">
         <v>600</v>
       </c>
       <c r="I12" s="3">
+        <v>900</v>
+      </c>
+      <c r="J12" s="3">
         <v>600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>500</v>
       </c>
       <c r="K12" s="3">
         <v>600</v>
       </c>
       <c r="L12" s="3">
+        <v>500</v>
+      </c>
+      <c r="M12" s="3">
+        <v>600</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>300</v>
       </c>
       <c r="O12" s="3">
         <v>300</v>
       </c>
       <c r="P12" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>300</v>
+      </c>
+      <c r="R12" s="3">
         <v>200</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>200</v>
-      </c>
-      <c r="R12" s="3">
-        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>200</v>
@@ -1117,19 +1144,19 @@
         <v>100</v>
       </c>
       <c r="U12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V12" s="3">
         <v>100</v>
       </c>
       <c r="W12" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="X12" s="3">
         <v>100</v>
       </c>
       <c r="Y12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Z12" s="3">
         <v>100</v>
@@ -1143,8 +1170,14 @@
       <c r="AC12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1235,40 +1274,40 @@
         <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1282,35 +1321,41 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>10</v>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>4900</v>
       </c>
       <c r="J17" s="3">
         <v>4400</v>
       </c>
       <c r="K17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="L17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M17" s="3">
         <v>5200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>3500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-1700</v>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E18" s="3">
-        <v>-2100</v>
+        <v>-2400</v>
       </c>
       <c r="F18" s="3">
         <v>-1700</v>
       </c>
       <c r="G18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>100</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,34 +1682,36 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1000</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1656,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1700,58 +1767,64 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-1500</v>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E21" s="3">
         <v>-2200</v>
       </c>
       <c r="F21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>500</v>
       </c>
       <c r="T21" s="3">
         <v>300</v>
@@ -1760,31 +1833,37 @@
         <v>500</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="W21" s="3">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="X21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="3">
         <v>-100</v>
       </c>
       <c r="Z21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB21" s="3">
         <v>200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>200</v>
       </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1809,18 +1888,18 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1863,58 +1942,64 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-      <c r="AC22" s="3" t="s">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>200</v>
       </c>
       <c r="S23" s="3">
         <v>300</v>
@@ -1923,73 +2008,79 @@
         <v>200</v>
       </c>
       <c r="U23" s="3">
+        <v>300</v>
+      </c>
+      <c r="V23" s="3">
+        <v>200</v>
+      </c>
+      <c r="W23" s="3">
         <v>400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-400</v>
       </c>
       <c r="H24" s="3">
         <v>-300</v>
       </c>
       <c r="I24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1997,43 +2088,49 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>-100</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
         <v>0</v>
       </c>
       <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,55 +2212,61 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-400</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>100</v>
       </c>
       <c r="S26" s="3">
         <v>300</v>
@@ -2172,81 +2275,87 @@
         <v>100</v>
       </c>
       <c r="U26" s="3">
+        <v>300</v>
+      </c>
+      <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
         <v>200</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>100</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>0</v>
-      </c>
       <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-400</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>100</v>
       </c>
       <c r="S27" s="3">
         <v>300</v>
@@ -2255,34 +2364,40 @@
         <v>100</v>
       </c>
       <c r="U27" s="3">
+        <v>300</v>
+      </c>
+      <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>100</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
       <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2391,32 +2512,32 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-600</v>
-      </c>
-      <c r="L29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
       </c>
       <c r="N29" s="3">
         <v>-100</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2447,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,34 +2746,40 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1000</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2652,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2696,55 +2835,61 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>100</v>
       </c>
       <c r="S33" s="3">
         <v>300</v>
@@ -2753,34 +2898,40 @@
         <v>100</v>
       </c>
       <c r="U33" s="3">
+        <v>300</v>
+      </c>
+      <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>100</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
       <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,55 +3013,61 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>100</v>
       </c>
       <c r="S35" s="3">
         <v>300</v>
@@ -2919,122 +3076,134 @@
         <v>100</v>
       </c>
       <c r="U35" s="3">
+        <v>300</v>
+      </c>
+      <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>100</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
       <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,126 +3266,134 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>5300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>9700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>7600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>1200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>1000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F42" s="3">
         <v>5300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>6400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>7800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>6900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>7000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>3700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>5300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>5800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>4000</v>
-      </c>
-      <c r="M42" s="3">
-        <v>300</v>
-      </c>
-      <c r="N42" s="3">
-        <v>300</v>
       </c>
       <c r="O42" s="3">
         <v>300</v>
@@ -3261,8 +3440,14 @@
       <c r="AC42" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3270,165 +3455,177 @@
         <v>1300</v>
       </c>
       <c r="E43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>1300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>1700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>1200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F44" s="3">
         <v>5000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>4700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>4400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K44" s="3">
-        <v>2600</v>
       </c>
       <c r="L44" s="3">
         <v>2900</v>
       </c>
       <c r="M44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O44" s="3">
         <v>2500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3000</v>
-      </c>
-      <c r="P44" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>2600</v>
       </c>
       <c r="R44" s="3">
         <v>2700</v>
       </c>
       <c r="S44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T44" s="3">
         <v>2700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V44" s="3">
         <v>2300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>2300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>2700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>2400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>2300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>2000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>2200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>2100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>2600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3439,34 +3636,34 @@
         <v>500</v>
       </c>
       <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>900</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -3484,117 +3681,129 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
       <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3">
-        <v>200</v>
-      </c>
       <c r="Y45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>200</v>
       </c>
       <c r="AA45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC45" s="3">
         <v>300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F46" s="3">
         <v>14500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>16300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>18400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>16800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>17500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>18400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>11200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>11700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>12000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>12700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>6300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>6800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>6000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>5500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>5400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>5200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>5000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>4700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>4500</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>5300</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>5200</v>
       </c>
       <c r="AB46" s="3">
         <v>5300</v>
       </c>
       <c r="AC46" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>5300</v>
+      </c>
+      <c r="AE46" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3647,28 +3856,28 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="V47" s="3">
         <v>200</v>
       </c>
-      <c r="W47" s="3" t="s">
+      <c r="W47" s="3">
+        <v>500</v>
+      </c>
+      <c r="X47" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y47" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>200</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>10</v>
+      <c r="AA47" s="3">
+        <v>200</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>10</v>
@@ -3676,8 +3885,14 @@
       <c r="AC47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3688,16 +3903,16 @@
         <v>2500</v>
       </c>
       <c r="F48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1100</v>
       </c>
       <c r="J48" s="3">
         <v>1100</v>
@@ -3706,7 +3921,7 @@
         <v>1100</v>
       </c>
       <c r="L48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="M48" s="3">
         <v>1100</v>
@@ -3715,22 +3930,22 @@
         <v>1200</v>
       </c>
       <c r="O48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="P48" s="3">
         <v>1200</v>
       </c>
       <c r="Q48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S48" s="3">
         <v>300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>300</v>
-      </c>
-      <c r="S48" s="3">
-        <v>200</v>
-      </c>
-      <c r="T48" s="3">
-        <v>200</v>
       </c>
       <c r="U48" s="3">
         <v>200</v>
@@ -3757,39 +3972,45 @@
         <v>200</v>
       </c>
       <c r="AC48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F49" s="3">
         <v>6300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>6500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>6600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>6700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>6800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>7000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>400</v>
-      </c>
-      <c r="L49" s="3">
-        <v>800</v>
       </c>
       <c r="M49" s="3">
         <v>400</v>
@@ -3798,13 +4019,13 @@
         <v>800</v>
       </c>
       <c r="O49" s="3">
+        <v>400</v>
+      </c>
+      <c r="P49" s="3">
         <v>800</v>
       </c>
-      <c r="P49" s="3">
-        <v>900</v>
-      </c>
       <c r="Q49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="R49" s="3">
         <v>900</v>
@@ -3813,37 +4034,43 @@
         <v>900</v>
       </c>
       <c r="T49" s="3">
+        <v>900</v>
+      </c>
+      <c r="U49" s="3">
+        <v>900</v>
+      </c>
+      <c r="V49" s="3">
         <v>1000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>1300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>1400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>1500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>1500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,49 +4241,55 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>700</v>
+      </c>
+      <c r="F52" s="3">
         <v>4200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>600</v>
-      </c>
-      <c r="O52" s="3">
-        <v>500</v>
-      </c>
-      <c r="P52" s="3">
-        <v>500</v>
       </c>
       <c r="Q52" s="3">
         <v>500</v>
@@ -4059,31 +4298,31 @@
         <v>500</v>
       </c>
       <c r="S52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U52" s="3">
         <v>400</v>
       </c>
       <c r="V52" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="W52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="X52" s="3">
         <v>600</v>
       </c>
       <c r="Y52" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z52" s="3">
         <v>600</v>
       </c>
-      <c r="Z52" s="3">
-        <v>300</v>
-      </c>
       <c r="AA52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AB52" s="3">
         <v>300</v>
@@ -4091,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>18100</v>
+      </c>
+      <c r="F54" s="3">
         <v>27600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>29000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>30500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>28900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>28200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>29000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>13900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>14100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>14600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>14800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>8900</v>
-      </c>
-      <c r="O54" s="3">
-        <v>8900</v>
       </c>
       <c r="P54" s="3">
         <v>8900</v>
       </c>
       <c r="Q54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="R54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="S54" s="3">
         <v>8300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>8500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>7600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>7300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>7300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>7400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>7000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>6700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>6800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>7200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>7200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>7400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,52 +4578,54 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>600</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
       </c>
       <c r="O57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
       </c>
       <c r="Q57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
@@ -4373,10 +4634,10 @@
         <v>600</v>
       </c>
       <c r="T57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U57" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="V57" s="3">
         <v>400</v>
@@ -4388,13 +4649,13 @@
         <v>400</v>
       </c>
       <c r="Y57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA57" s="3">
         <v>100</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>300</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>300</v>
       </c>
       <c r="AB57" s="3">
         <v>300</v>
@@ -4402,43 +4663,49 @@
       <c r="AC57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4447,17 +4714,17 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
@@ -4477,182 +4744,200 @@
         <v>0</v>
       </c>
       <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
         <v>300</v>
       </c>
-      <c r="AB58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>900</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1000</v>
       </c>
       <c r="Q59" s="3">
         <v>900</v>
       </c>
       <c r="R59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S59" s="3">
+        <v>900</v>
+      </c>
+      <c r="T59" s="3">
         <v>1300</v>
-      </c>
-      <c r="S59" s="3">
-        <v>800</v>
-      </c>
-      <c r="T59" s="3">
-        <v>800</v>
       </c>
       <c r="U59" s="3">
         <v>800</v>
       </c>
       <c r="V59" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="W59" s="3">
         <v>800</v>
       </c>
       <c r="X59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z59" s="3">
         <v>600</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>700</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>700</v>
       </c>
       <c r="AA59" s="3">
         <v>700</v>
       </c>
       <c r="AB59" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD59" s="3">
         <v>1100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2000</v>
       </c>
       <c r="H60" s="3">
         <v>2000</v>
       </c>
       <c r="I60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1000</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>1400</v>
       </c>
       <c r="AC60" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4746,61 +5037,61 @@
         <v>1200</v>
       </c>
       <c r="F62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>300</v>
-      </c>
-      <c r="T62" s="3">
-        <v>400</v>
-      </c>
-      <c r="U62" s="3">
-        <v>400</v>
       </c>
       <c r="V62" s="3">
         <v>400</v>
       </c>
       <c r="W62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="X62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Y62" s="3">
         <v>200</v>
@@ -4809,16 +5100,22 @@
         <v>200</v>
       </c>
       <c r="AA62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC62" s="3">
         <v>100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,34 +5375,40 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3100</v>
       </c>
       <c r="L66" s="3">
         <v>3100</v>
@@ -5102,55 +5417,61 @@
         <v>3100</v>
       </c>
       <c r="N66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P66" s="3">
         <v>2900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,82 +5853,88 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>3400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>3700</v>
-      </c>
-      <c r="P72" s="3">
-        <v>3700</v>
       </c>
       <c r="Q72" s="3">
         <v>3700</v>
       </c>
       <c r="R72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="T72" s="3">
         <v>3400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>3300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>3200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>3100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>2900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>3000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>3100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>3300</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>3400</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>3400</v>
       </c>
       <c r="AB72" s="3">
         <v>3400</v>
@@ -5595,8 +5942,14 @@
       <c r="AC72" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>3400</v>
+      </c>
+      <c r="AE72" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F76" s="3">
         <v>24800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>25600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>27100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>25500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>25700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>26200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>11000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>6300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>6300</v>
       </c>
       <c r="Q76" s="3">
         <v>6300</v>
       </c>
       <c r="R76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="S76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="T76" s="3">
         <v>6000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>5900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>5800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>5700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>5500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>5500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>5600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>5800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>6000</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>5900</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>5900</v>
       </c>
       <c r="AC76" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>5900</v>
+      </c>
+      <c r="AE76" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,143 +6387,155 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>100</v>
       </c>
       <c r="S81" s="3">
         <v>300</v>
@@ -6155,34 +6544,40 @@
         <v>100</v>
       </c>
       <c r="U81" s="3">
+        <v>300</v>
+      </c>
+      <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>100</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>0</v>
-      </c>
       <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6221,22 +6618,22 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -6245,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -6260,28 +6657,28 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
       </c>
       <c r="W83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X83" s="3">
         <v>100</v>
       </c>
       <c r="Y83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z83" s="3">
         <v>100</v>
@@ -6295,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>600</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S89" s="3">
         <v>700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>400</v>
-      </c>
-      <c r="T89" s="3">
-        <v>500</v>
       </c>
       <c r="U89" s="3">
         <v>400</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W89" s="3">
+        <v>400</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,43 +7263,45 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6869,17 +7310,17 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
@@ -6887,14 +7328,14 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
@@ -6905,10 +7346,16 @@
         <v>0</v>
       </c>
       <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7082,35 +7541,35 @@
         <v>900</v>
       </c>
       <c r="E94" s="3">
+        <v>900</v>
+      </c>
+      <c r="F94" s="3">
+        <v>900</v>
+      </c>
+      <c r="G94" s="3">
         <v>800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-6100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3800</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -7118,17 +7577,17 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -7136,14 +7595,14 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
@@ -7154,10 +7613,16 @@
         <v>0</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7238,14 +7705,14 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -7270,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +8004,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>15900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>6200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7614,19 +8111,19 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>10</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
@@ -7640,11 +8137,11 @@
       <c r="N101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -7685,87 +8182,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-4400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>9000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-6400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-4200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>6800</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-200</v>
       </c>
       <c r="P102" s="3">
         <v>-300</v>
       </c>
       <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>SCND</t>
   </si>
@@ -1478,8 +1478,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
+      <c r="D17" s="3">
+        <v>5300</v>
       </c>
       <c r="E17" s="3">
         <v>5000</v>
@@ -1567,8 +1567,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>-2500</v>
       </c>
       <c r="E18" s="3">
         <v>-2400</v>
@@ -1689,8 +1689,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1778,8 +1778,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>-2200</v>
       </c>
       <c r="E21" s="3">
         <v>-2200</v>
@@ -2223,8 +2223,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
+      <c r="D26" s="3">
+        <v>-2400</v>
       </c>
       <c r="E26" s="3">
         <v>-2800</v>
@@ -2312,8 +2312,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
+      <c r="D27" s="3">
+        <v>-2400</v>
       </c>
       <c r="E27" s="3">
         <v>-2800</v>
@@ -2757,8 +2757,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2846,8 +2846,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
+      <c r="D33" s="3">
+        <v>-2400</v>
       </c>
       <c r="E33" s="3">
         <v>-2800</v>
@@ -3024,8 +3024,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>10</v>
+      <c r="D35" s="3">
+        <v>-2400</v>
       </c>
       <c r="E35" s="3">
         <v>-2800</v>
@@ -6492,8 +6492,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>10</v>
+      <c r="D81" s="3">
+        <v>-2400</v>
       </c>
       <c r="E81" s="3">
         <v>-2800</v>

--- a/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCND_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>SCND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AG102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,247 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AG7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2900</v>
       </c>
       <c r="J8" s="3">
         <v>2900</v>
       </c>
       <c r="K8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M8" s="3">
         <v>2500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2000</v>
-      </c>
-      <c r="W8" s="3">
-        <v>3200</v>
-      </c>
-      <c r="X8" s="3">
-        <v>2100</v>
       </c>
       <c r="Y8" s="3">
         <v>3200</v>
       </c>
       <c r="Z8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="AB8" s="3">
         <v>1300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>1900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>2700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AF8" s="3">
         <v>1600</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AG8" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E9" s="3">
         <v>1600</v>
       </c>
       <c r="F9" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G9" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H9" s="3">
         <v>1300</v>
@@ -903,159 +917,171 @@
         <v>1300</v>
       </c>
       <c r="K9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M9" s="3">
         <v>1400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O9" s="3">
-        <v>900</v>
       </c>
       <c r="P9" s="3">
         <v>1000</v>
       </c>
       <c r="Q9" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="R9" s="3">
         <v>1000</v>
       </c>
       <c r="S9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U9" s="3">
         <v>1600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>2300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1100</v>
-      </c>
-      <c r="W9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="X9" s="3">
-        <v>1300</v>
       </c>
       <c r="Y9" s="3">
         <v>2000</v>
       </c>
       <c r="Z9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AB9" s="3">
         <v>800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>1100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>1900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AF9" s="3">
         <v>900</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AG9" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1300</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1400</v>
       </c>
       <c r="J10" s="3">
         <v>1600</v>
       </c>
       <c r="K10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M10" s="3">
         <v>1100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>900</v>
-      </c>
-      <c r="W10" s="3">
-        <v>1200</v>
-      </c>
-      <c r="X10" s="3">
-        <v>800</v>
       </c>
       <c r="Y10" s="3">
         <v>1200</v>
       </c>
       <c r="Z10" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB10" s="3">
         <v>500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AF10" s="3">
         <v>700</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AG10" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,61 +1113,63 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>700</v>
+      </c>
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>700</v>
       </c>
       <c r="H12" s="3">
         <v>600</v>
       </c>
       <c r="I12" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="J12" s="3">
         <v>600</v>
       </c>
       <c r="K12" s="3">
+        <v>900</v>
+      </c>
+      <c r="L12" s="3">
         <v>600</v>
-      </c>
-      <c r="L12" s="3">
-        <v>500</v>
       </c>
       <c r="M12" s="3">
         <v>600</v>
       </c>
       <c r="N12" s="3">
+        <v>500</v>
+      </c>
+      <c r="O12" s="3">
+        <v>600</v>
+      </c>
+      <c r="P12" s="3">
         <v>200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>300</v>
-      </c>
-      <c r="P12" s="3">
-        <v>300</v>
       </c>
       <c r="Q12" s="3">
         <v>300</v>
       </c>
       <c r="R12" s="3">
+        <v>300</v>
+      </c>
+      <c r="S12" s="3">
+        <v>300</v>
+      </c>
+      <c r="T12" s="3">
         <v>200</v>
-      </c>
-      <c r="S12" s="3">
-        <v>200</v>
-      </c>
-      <c r="T12" s="3">
-        <v>100</v>
       </c>
       <c r="U12" s="3">
         <v>200</v>
@@ -1150,19 +1178,19 @@
         <v>100</v>
       </c>
       <c r="W12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X12" s="3">
         <v>100</v>
       </c>
       <c r="Y12" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Z12" s="3">
         <v>100</v>
       </c>
       <c r="AA12" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AB12" s="3">
         <v>100</v>
@@ -1176,8 +1204,14 @@
       <c r="AE12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,55 +1299,61 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1327,35 +1367,41 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>10</v>
+      <c r="AC14" s="3">
+        <v>0</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AE14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1489,14 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1525,200 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F17" s="3">
         <v>5300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>4400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>4900</v>
       </c>
       <c r="L17" s="3">
         <v>4400</v>
       </c>
       <c r="M17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="N17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="O17" s="3">
         <v>5200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>3500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>2600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AF17" s="3">
         <v>1600</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AG17" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-2100</v>
       </c>
       <c r="H18" s="3">
         <v>-1700</v>
       </c>
       <c r="I18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>100</v>
       </c>
-      <c r="AD18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,40 +1750,42 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1000</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M20" s="3">
         <v>600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1729,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1773,64 +1841,70 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2200</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1500</v>
       </c>
       <c r="G21" s="3">
         <v>-2200</v>
       </c>
       <c r="H21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>300</v>
-      </c>
-      <c r="T21" s="3">
-        <v>300</v>
-      </c>
-      <c r="U21" s="3">
-        <v>500</v>
       </c>
       <c r="V21" s="3">
         <v>300</v>
@@ -1839,31 +1913,37 @@
         <v>500</v>
       </c>
       <c r="X21" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Y21" s="3">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="Z21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="3">
         <v>-100</v>
       </c>
       <c r="AB21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD21" s="3">
         <v>200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>200</v>
       </c>
-      <c r="AD21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1894,18 +1974,18 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1948,64 +2028,70 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-      <c r="AE22" s="3" t="s">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>200</v>
       </c>
       <c r="U23" s="3">
         <v>300</v>
@@ -2014,34 +2100,40 @@
         <v>200</v>
       </c>
       <c r="W23" s="3">
+        <v>300</v>
+      </c>
+      <c r="X23" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y23" s="3">
         <v>400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AF23" s="3">
         <v>-100</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AG23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2049,44 +2141,44 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-400</v>
       </c>
       <c r="J24" s="3">
         <v>-300</v>
       </c>
       <c r="K24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -2094,43 +2186,49 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>-100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-100</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>0</v>
-      </c>
       <c r="AD24" s="3">
         <v>0</v>
       </c>
       <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,61 +2316,67 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-400</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>100</v>
       </c>
       <c r="U26" s="3">
         <v>300</v>
@@ -2281,87 +2385,93 @@
         <v>100</v>
       </c>
       <c r="W26" s="3">
+        <v>300</v>
+      </c>
+      <c r="X26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>200</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>100</v>
       </c>
-      <c r="AC26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>0</v>
-      </c>
       <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-400</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>100</v>
       </c>
       <c r="U27" s="3">
         <v>300</v>
@@ -2370,34 +2480,40 @@
         <v>100</v>
       </c>
       <c r="W27" s="3">
+        <v>300</v>
+      </c>
+      <c r="X27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>200</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>100</v>
       </c>
-      <c r="AC27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>0</v>
-      </c>
       <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2601,14 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2518,32 +2640,32 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-600</v>
-      </c>
-      <c r="N29" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
       </c>
       <c r="P29" s="3">
         <v>-100</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
@@ -2574,8 +2696,14 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2791,14 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,40 +2886,46 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1000</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2797,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2841,61 +2981,67 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>100</v>
       </c>
       <c r="U33" s="3">
         <v>300</v>
@@ -2904,34 +3050,40 @@
         <v>100</v>
       </c>
       <c r="W33" s="3">
+        <v>300</v>
+      </c>
+      <c r="X33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>200</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>100</v>
       </c>
-      <c r="AC33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="3">
-        <v>0</v>
-      </c>
       <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,61 +3171,67 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>100</v>
       </c>
       <c r="U35" s="3">
         <v>300</v>
@@ -3082,128 +3240,140 @@
         <v>100</v>
       </c>
       <c r="W35" s="3">
+        <v>300</v>
+      </c>
+      <c r="X35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>200</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>100</v>
       </c>
-      <c r="AC35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="3">
-        <v>0</v>
-      </c>
       <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AG38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3405,10 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,138 +3440,146 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>1200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AF41" s="3">
         <v>1000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AG41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F42" s="3">
         <v>3400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>4300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>5300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>6400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>7800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>6900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>7000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>5300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>5800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>4000</v>
-      </c>
-      <c r="O42" s="3">
-        <v>300</v>
-      </c>
-      <c r="P42" s="3">
-        <v>300</v>
       </c>
       <c r="Q42" s="3">
         <v>300</v>
@@ -3446,8 +3626,14 @@
       <c r="AE42" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>300</v>
+      </c>
+      <c r="AG42" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3455,182 +3641,194 @@
         <v>1300</v>
       </c>
       <c r="E43" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="F43" s="3">
         <v>1300</v>
       </c>
       <c r="G43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I43" s="3">
         <v>1700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>1000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>1200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>1300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>1700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AF43" s="3">
         <v>1200</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AG43" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F44" s="3">
         <v>5200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>4900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>5000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>4700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>4400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3000</v>
-      </c>
-      <c r="L44" s="3">
-        <v>2900</v>
-      </c>
-      <c r="M44" s="3">
-        <v>2600</v>
       </c>
       <c r="N44" s="3">
         <v>2900</v>
       </c>
       <c r="O44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q44" s="3">
         <v>2500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>3000</v>
-      </c>
-      <c r="R44" s="3">
-        <v>2700</v>
-      </c>
-      <c r="S44" s="3">
-        <v>2600</v>
       </c>
       <c r="T44" s="3">
         <v>2700</v>
       </c>
       <c r="U44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V44" s="3">
         <v>2700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="X44" s="3">
         <v>2300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>2300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>2700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>2400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>2300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>2000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>2200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>2100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AF44" s="3">
         <v>2600</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AG44" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
@@ -3642,34 +3840,34 @@
         <v>500</v>
       </c>
       <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>900</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -3687,123 +3885,135 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
       <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
-      <c r="Z45" s="3">
-        <v>200</v>
-      </c>
       <c r="AA45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB45" s="3">
         <v>200</v>
       </c>
       <c r="AC45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE45" s="3">
         <v>300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AF45" s="3">
         <v>300</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AG45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F46" s="3">
         <v>11500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>13000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>14500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>16300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>18400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>16800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>17500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>18400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>11200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>11700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>12000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>12700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>6400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>6300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>6600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>6800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>6000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>5500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>5400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>5200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>5000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>4700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>4500</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>5300</v>
-      </c>
-      <c r="AC46" s="3">
-        <v>5200</v>
       </c>
       <c r="AD46" s="3">
         <v>5300</v>
       </c>
       <c r="AE46" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>5300</v>
+      </c>
+      <c r="AG46" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3862,28 +4072,28 @@
         <v>0</v>
       </c>
       <c r="V47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W47" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X47" s="3">
         <v>200</v>
       </c>
-      <c r="Y47" s="3" t="s">
+      <c r="Y47" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA47" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="Z47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>200</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>10</v>
+      <c r="AC47" s="3">
+        <v>200</v>
       </c>
       <c r="AD47" s="3" t="s">
         <v>10</v>
@@ -3891,16 +4101,22 @@
       <c r="AE47" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="E48" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F48" s="3">
         <v>2500</v>
@@ -3909,16 +4125,16 @@
         <v>2500</v>
       </c>
       <c r="H48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1100</v>
       </c>
       <c r="L48" s="3">
         <v>1100</v>
@@ -3927,7 +4143,7 @@
         <v>1100</v>
       </c>
       <c r="N48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="O48" s="3">
         <v>1100</v>
@@ -3936,22 +4152,22 @@
         <v>1200</v>
       </c>
       <c r="Q48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="R48" s="3">
         <v>1200</v>
       </c>
       <c r="S48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U48" s="3">
         <v>300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>300</v>
-      </c>
-      <c r="U48" s="3">
-        <v>200</v>
-      </c>
-      <c r="V48" s="3">
-        <v>200</v>
       </c>
       <c r="W48" s="3">
         <v>200</v>
@@ -3978,45 +4194,51 @@
         <v>200</v>
       </c>
       <c r="AE48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AG48" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F49" s="3">
         <v>1700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>6300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>6500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>6600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>6700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>6800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>7000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>400</v>
-      </c>
-      <c r="M49" s="3">
-        <v>400</v>
-      </c>
-      <c r="N49" s="3">
-        <v>800</v>
       </c>
       <c r="O49" s="3">
         <v>400</v>
@@ -4025,13 +4247,13 @@
         <v>800</v>
       </c>
       <c r="Q49" s="3">
+        <v>400</v>
+      </c>
+      <c r="R49" s="3">
         <v>800</v>
       </c>
-      <c r="R49" s="3">
-        <v>900</v>
-      </c>
       <c r="S49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T49" s="3">
         <v>900</v>
@@ -4040,37 +4262,43 @@
         <v>900</v>
       </c>
       <c r="V49" s="3">
+        <v>900</v>
+      </c>
+      <c r="W49" s="3">
+        <v>900</v>
+      </c>
+      <c r="X49" s="3">
         <v>1000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>1200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>1200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>1300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>1400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>1500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AF49" s="3">
         <v>1500</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AG49" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4386,14 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4481,14 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4259,43 +4499,43 @@
         <v>700</v>
       </c>
       <c r="F52" s="3">
+        <v>700</v>
+      </c>
+      <c r="G52" s="3">
+        <v>700</v>
+      </c>
+      <c r="H52" s="3">
         <v>4200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>600</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>500</v>
-      </c>
-      <c r="R52" s="3">
-        <v>500</v>
       </c>
       <c r="S52" s="3">
         <v>500</v>
@@ -4304,31 +4544,31 @@
         <v>500</v>
       </c>
       <c r="U52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W52" s="3">
         <v>400</v>
       </c>
       <c r="X52" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Y52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Z52" s="3">
         <v>600</v>
       </c>
       <c r="AA52" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB52" s="3">
         <v>600</v>
       </c>
-      <c r="AB52" s="3">
-        <v>300</v>
-      </c>
       <c r="AC52" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AD52" s="3">
         <v>300</v>
@@ -4336,8 +4576,14 @@
       <c r="AE52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AG52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4671,109 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F54" s="3">
         <v>16400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>18100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>27600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>29000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>30500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>28900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>28200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>29000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>13900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>14100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>14600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>14800</v>
-      </c>
-      <c r="P54" s="3">
-        <v>8900</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>8900</v>
       </c>
       <c r="R54" s="3">
         <v>8900</v>
       </c>
       <c r="S54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="T54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="U54" s="3">
         <v>8300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>8500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>7600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>7300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>7300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>7400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>7000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>6700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>6800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>7200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>7200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AF54" s="3">
         <v>7400</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AG54" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4805,10 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,58 +4840,60 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
       </c>
       <c r="Q57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
       </c>
       <c r="S57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>500</v>
@@ -4640,10 +4902,10 @@
         <v>600</v>
       </c>
       <c r="V57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W57" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="X57" s="3">
         <v>400</v>
@@ -4655,13 +4917,13 @@
         <v>400</v>
       </c>
       <c r="AA57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC57" s="3">
         <v>100</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>300</v>
-      </c>
-      <c r="AC57" s="3">
-        <v>300</v>
       </c>
       <c r="AD57" s="3">
         <v>300</v>
@@ -4669,49 +4931,55 @@
       <c r="AE57" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AG57" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4720,17 +4988,17 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
@@ -4750,194 +5018,212 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
         <v>300</v>
       </c>
-      <c r="AD58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>900</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1000</v>
       </c>
       <c r="S59" s="3">
         <v>900</v>
       </c>
       <c r="T59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U59" s="3">
+        <v>900</v>
+      </c>
+      <c r="V59" s="3">
         <v>1300</v>
-      </c>
-      <c r="U59" s="3">
-        <v>800</v>
-      </c>
-      <c r="V59" s="3">
-        <v>800</v>
       </c>
       <c r="W59" s="3">
         <v>800</v>
       </c>
       <c r="X59" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Y59" s="3">
         <v>800</v>
       </c>
       <c r="Z59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB59" s="3">
         <v>600</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>700</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>700</v>
       </c>
       <c r="AC59" s="3">
         <v>700</v>
       </c>
       <c r="AD59" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>700</v>
+      </c>
+      <c r="AF59" s="3">
         <v>1100</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AG59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2000</v>
       </c>
       <c r="J60" s="3">
         <v>2000</v>
       </c>
       <c r="K60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>1000</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="AD60" s="3">
-        <v>1400</v>
       </c>
       <c r="AE60" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AG60" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,13 +5311,19 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E62" s="3">
         <v>1200</v>
@@ -5043,61 +5335,61 @@
         <v>1200</v>
       </c>
       <c r="H62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J62" s="3">
         <v>1400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>300</v>
-      </c>
-      <c r="V62" s="3">
-        <v>400</v>
-      </c>
-      <c r="W62" s="3">
-        <v>400</v>
       </c>
       <c r="X62" s="3">
         <v>400</v>
       </c>
       <c r="Y62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Z62" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AA62" s="3">
         <v>200</v>
@@ -5106,16 +5398,22 @@
         <v>200</v>
       </c>
       <c r="AC62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE62" s="3">
         <v>100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AF62" s="3">
         <v>100</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AG62" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5501,14 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5596,14 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,40 +5691,46 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="3">
         <v>3300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3100</v>
       </c>
       <c r="N66" s="3">
         <v>3100</v>
@@ -5423,55 +5739,61 @@
         <v>3100</v>
       </c>
       <c r="P66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R66" s="3">
         <v>2900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>1400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AF66" s="3">
         <v>1600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AG66" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5825,10 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5916,14 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +6011,14 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +6106,14 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,88 +6201,94 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-20800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-18400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-4300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>3000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>3400</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>3700</v>
-      </c>
-      <c r="R72" s="3">
-        <v>3700</v>
       </c>
       <c r="S72" s="3">
         <v>3700</v>
       </c>
       <c r="T72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="U72" s="3">
+        <v>3700</v>
+      </c>
+      <c r="V72" s="3">
         <v>3400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>3300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>3200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>3100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>2900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>3000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>3100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>3300</v>
-      </c>
-      <c r="AB72" s="3">
-        <v>3400</v>
-      </c>
-      <c r="AC72" s="3">
-        <v>3400</v>
       </c>
       <c r="AD72" s="3">
         <v>3400</v>
@@ -5948,8 +6296,14 @@
       <c r="AE72" s="3">
         <v>3400</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3">
+        <v>3400</v>
+      </c>
+      <c r="AG72" s="3">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="73" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6391,14 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6486,14 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6581,109 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F76" s="3">
         <v>13100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>14800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>24800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>25600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>27100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>25500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>25700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>26200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>10800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>11700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6000</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>6300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>6300</v>
       </c>
       <c r="S76" s="3">
         <v>6300</v>
       </c>
       <c r="T76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="U76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="V76" s="3">
         <v>6000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>5900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>5800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>5700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>5500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>5500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>5600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>5800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>6000</v>
-      </c>
-      <c r="AC76" s="3">
-        <v>5900</v>
-      </c>
-      <c r="AD76" s="3">
-        <v>5900</v>
       </c>
       <c r="AE76" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3">
+        <v>5900</v>
+      </c>
+      <c r="AG76" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,155 +6771,167 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AG80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>100</v>
       </c>
       <c r="U81" s="3">
         <v>300</v>
@@ -6550,34 +6940,40 @@
         <v>100</v>
       </c>
       <c r="W81" s="3">
+        <v>300</v>
+      </c>
+      <c r="X81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>200</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>100</v>
       </c>
-      <c r="AC81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD81" s="3">
-        <v>0</v>
-      </c>
       <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG81" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +7005,10 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6624,22 +7022,22 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -6648,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -6663,28 +7061,28 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
       </c>
       <c r="W83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X83" s="3">
         <v>100</v>
       </c>
       <c r="Y83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z83" s="3">
         <v>100</v>
       </c>
       <c r="AA83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB83" s="3">
         <v>100</v>
@@ -6698,8 +7096,14 @@
       <c r="AE83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AG83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +7191,14 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7286,14 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7381,14 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7476,14 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7571,109 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-300</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U89" s="3">
         <v>700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>100</v>
-      </c>
-      <c r="U89" s="3">
-        <v>400</v>
-      </c>
-      <c r="V89" s="3">
-        <v>500</v>
       </c>
       <c r="W89" s="3">
         <v>400</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Y89" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AF89" s="3">
         <v>-200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AG89" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7705,10 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+      <c r="AG90" s="3"/>
+    </row>
+    <row r="91" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7277,37 +7719,37 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -7316,17 +7758,17 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
@@ -7334,14 +7776,14 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
@@ -7352,10 +7794,16 @@
         <v>0</v>
       </c>
       <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7891,14 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,50 +7986,56 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>900</v>
+      <c r="D94" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E94" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="F94" s="3">
         <v>900</v>
       </c>
       <c r="G94" s="3">
+        <v>900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>900</v>
+      </c>
+      <c r="I94" s="3">
         <v>800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-6100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-5200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3800</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -7583,17 +8043,17 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
@@ -7601,14 +8061,14 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
@@ -7619,10 +8079,16 @@
         <v>0</v>
       </c>
       <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +8120,10 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+      <c r="AG95" s="3"/>
+    </row>
+    <row r="96" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7711,14 +8179,14 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -7743,8 +8211,14 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8306,14 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8401,14 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8496,14 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8019,88 +8511,94 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>15900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>6200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-100</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>-300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AF100" s="3">
         <v>-100</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AG100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8117,19 +8615,19 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>10</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>10</v>
@@ -8143,11 +8641,11 @@
       <c r="P101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -8188,93 +8686,105 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-4400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>9000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-6400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-4200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>6800</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-200</v>
       </c>
       <c r="R102" s="3">
         <v>-300</v>
       </c>
       <c r="S102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>400</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AF102" s="3">
         <v>-300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AG102" s="3">
         <v>200</v>
       </c>
     </row>
